--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/additive/ranking_test4/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.413</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.376</v>
+        <v>28.284</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5580000000000001</v>
+        <v>-0.113</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.752</v>
+        <v>28.174</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.614</v>
+        <v>-0.035</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.022</v>
+        <v>27.869</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5.860992707689849</v>
+        <v>27.09102272653347</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>18.41578741649741</v>
+        <v>27.09102276014377</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>23.82568711868053</v>
+        <v>27.09102277094017</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.561144154945474</v>
+        <v>27.09102272928066</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>17.02453455097983</v>
+        <v>27.09102276622128</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22.69779349061186</v>
+        <v>27.09102277797485</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5.907158282153421</v>
+        <v>27.09102273404662</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.07898083114549</v>
+        <v>27.09102277121318</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>27.83083423516204</v>
+        <v>27.09102278199579</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>23.64426772117945</v>
+        <v>27.09102278560341</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.49156622958136</v>
+        <v>27.09102279991522</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>33.48688778686483</v>
+        <v>27.09102280516764</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>8.908738006859046</v>
+        <v>27.09102275730882</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>23.88589702759391</v>
+        <v>27.09102279439622</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>31.10628414663863</v>
+        <v>27.09102280512873</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>8.834408546035757</v>
+        <v>27.09102278765187</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.77060009482175</v>
+        <v>27.09102282682188</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.86497353177361</v>
+        <v>27.09102283981856</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.373019574739768</v>
+        <v>27.09102278877734</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>21.53568149781473</v>
+        <v>27.09102283053352</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.53002970205924</v>
+        <v>27.09102284521277</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>8.202920577751492</v>
+        <v>27.09102279856585</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.08903894072031</v>
+        <v>27.09102284136905</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>9.837169804007438</v>
+        <v>27.09102273872337</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>22.99184198415844</v>
+        <v>27.09102277407488</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.41165628540566</v>
+        <v>27.09102278483942</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6.353572673102153</v>
+        <v>27.09102274342956</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>22.54162608191285</v>
+        <v>27.0910227823721</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.24782439005291</v>
+        <v>27.0910227942051</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>11.00531078140619</v>
+        <v>27.09102274894862</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>27.85760217139029</v>
+        <v>27.09102278801521</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>33.63866288574884</v>
+        <v>27.09102279879992</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.60315184759814</v>
+        <v>27.09102280243607</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>35.54557246075304</v>
+        <v>27.09102281700096</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>39.60250144831157</v>
+        <v>27.09102282226076</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>14.11557213119717</v>
+        <v>27.09102277220074</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.84243767462765</v>
+        <v>27.09102281128347</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>37.0680521427063</v>
+        <v>27.09102282187127</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>13.95402863327272</v>
+        <v>27.09102280410159</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>31.601490281732</v>
+        <v>27.0910228452859</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>38.76003663627382</v>
+        <v>27.09102285832248</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>8.46829267527637</v>
+        <v>27.09102280751838</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.47728869094281</v>
+        <v>27.09102285157936</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>36.57198470756161</v>
+        <v>27.09102286642263</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>36.414053184197</v>
+        <v>27.0910228633353</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>10.45909670759384</v>
+        <v>27.09102274158228</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>23.67740373170712</v>
+        <v>27.09102277683659</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.07423043044073</v>
+        <v>27.0910227874828</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>7.255885608250438</v>
+        <v>27.09102274681218</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>23.5062429812948</v>
+        <v>27.09102278566129</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.19359137339833</v>
+        <v>27.09102279738344</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>11.92161931893541</v>
+        <v>27.0910227523301</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>28.82561762096524</v>
+        <v>27.09102279127972</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>34.58549150609925</v>
+        <v>27.09102280195242</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>30.60889758983338</v>
+        <v>27.091022805467</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>36.52833339905818</v>
+        <v>27.09102281988761</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>40.58198658881542</v>
+        <v>27.09102282510206</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>15.0351908291247</v>
+        <v>27.09102277517234</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>30.85920232207303</v>
+        <v>27.091022814211</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>38.04843682219771</v>
+        <v>27.09102282467143</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>14.80741541951948</v>
+        <v>27.09102280692812</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>32.5075523761319</v>
+        <v>27.09102284797921</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>39.64467623612455</v>
+        <v>27.09102286090867</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>9.648313682905279</v>
+        <v>27.09102281093891</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.71396561861614</v>
+        <v>27.09102285488271</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>37.79241511684857</v>
+        <v>27.09102286963068</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>15.93320383724416</v>
+        <v>27.09102282171692</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>37.66589475914586</v>
+        <v>27.09102286657454</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>8.524165674441594</v>
+        <v>27.09102273253854</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>21.63090127150098</v>
+        <v>27.09102276688267</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>27.08383480086853</v>
+        <v>27.09102277769111</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>4.621070684605055</v>
+        <v>27.09102273698083</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>20.76612873314307</v>
+        <v>27.09102277477523</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>26.49401534401396</v>
+        <v>27.09102278660237</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>9.285380270424874</v>
+        <v>27.09102274190567</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>26.11058815289764</v>
+        <v>27.09102277986008</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>31.92373067597016</v>
+        <v>27.09102279066998</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>27.84855084428403</v>
+        <v>27.09102279395506</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>33.84310443781363</v>
+        <v>27.09102280826914</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>37.90918201594208</v>
+        <v>27.0910228135631</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>12.40268560771654</v>
+        <v>27.09102276467537</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>28.04707094629833</v>
+        <v>27.09102280275372</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>35.33330925743995</v>
+        <v>27.09102281345588</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>12.26781677586601</v>
+        <v>27.09102279544187</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>29.88549541016362</v>
+        <v>27.09102283543847</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>37.08332747671435</v>
+        <v>27.0910228485233</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6.289531557417014</v>
+        <v>27.0910227984675</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>26.26321656613772</v>
+        <v>27.09102284119413</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>34.3866909871567</v>
+        <v>27.09102285605841</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>12.54294011484762</v>
+        <v>27.09102280845295</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>34.22775142734581</v>
+        <v>27.09102285215051</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>36.99019737391934</v>
+        <v>27.09102285458004</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>30.70253849344973</v>
+        <v>27.0910228524756</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>40.41669475061843</v>
+        <v>27.09102286992343</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>45.88841573180436</v>
+        <v>27.09102287664838</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>12.90309386130748</v>
+        <v>27.09102281761959</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>35.10900605675803</v>
+        <v>27.09102286239217</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>43.1251957424617</v>
+        <v>27.09102287482638</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>12.26865590695364</v>
+        <v>27.09102283189213</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>30.53805303810843</v>
+        <v>27.09102287176716</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>37.93467128432326</v>
+        <v>27.09102288472209</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>7.191420005418983</v>
+        <v>27.09102283310774</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>28.53367612826236</v>
+        <v>27.09102287570854</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>36.41158015730755</v>
+        <v>27.0910228901361</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>14.73830298448557</v>
+        <v>27.0910228451767</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>37.17714075284552</v>
+        <v>27.09102288871289</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>45.36757341948626</v>
+        <v>27.09102290182048</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>41.40674766486774</v>
+        <v>27.09102289751035</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>51.35005963857512</v>
+        <v>27.09102291481389</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>57.00817370959869</v>
+        <v>27.09102292049499</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>21.05086415271747</v>
+        <v>27.09102286094008</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>44.55280618037915</v>
+        <v>27.09102290578124</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>52.69745296246698</v>
+        <v>27.09102291827345</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>44.40941299479019</v>
+        <v>27.0910228766264</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>38.11076660783954</v>
+        <v>27.09102287398226</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>47.94048648703089</v>
+        <v>27.09102289172337</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>53.50029095146222</v>
+        <v>27.09102289845231</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>19.53019182834495</v>
+        <v>27.09102283711894</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>42.63451881957417</v>
+        <v>27.09102288420701</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>50.71562152900482</v>
+        <v>27.09102289651956</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>18.22297733386825</v>
+        <v>27.09102285038794</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>37.19820907126172</v>
+        <v>27.0910228922993</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>44.62895970714801</v>
+        <v>27.09102290523621</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>14.10428075183809</v>
+        <v>27.09102285376517</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>36.29034155184495</v>
+        <v>27.09102289871593</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>44.23099360100892</v>
+        <v>27.09102291323637</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>22.15063103218154</v>
+        <v>27.09102286691685</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>45.39593998328365</v>
+        <v>27.09102291268923</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>53.64019315074549</v>
+        <v>27.09102292579631</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>49.68163966541267</v>
+        <v>27.09102292088591</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>59.74109993860277</v>
+        <v>27.09102293845147</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>65.46437394496566</v>
+        <v>27.09102294411773</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>28.51176020795499</v>
+        <v>27.09102288229419</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>52.88721866865637</v>
+        <v>27.09102292940495</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>61.08302578376428</v>
+        <v>27.09102294170436</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>45.64120394250195</v>
+        <v>27.09102287976478</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>39.37445897350172</v>
+        <v>27.09102287692985</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>49.15301746455988</v>
+        <v>27.09102289448029</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>54.70465226017964</v>
+        <v>27.09102290115758</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>20.73211236279982</v>
+        <v>27.09102284011396</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>43.91070870403688</v>
+        <v>27.09102288710368</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>19.30371995968702</v>
+        <v>27.09102285319324</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>38.32443312295473</v>
+        <v>27.0910228949879</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>45.72084209381326</v>
+        <v>27.09102290779458</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>15.49889244312797</v>
+        <v>27.09102285713546</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>37.72923649491472</v>
+        <v>27.09102290198962</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>45.64093648111594</v>
+        <v>27.09102291638749</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>23.58237300929754</v>
+        <v>27.0910228702471</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>46.86084838191921</v>
+        <v>27.09102291588673</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>55.06927947931035</v>
+        <v>27.09102292886553</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>51.12699575877967</v>
+        <v>27.09102292379053</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>61.13578427407091</v>
+        <v>27.0910229411628</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>66.84299793427276</v>
+        <v>27.09102294678167</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>29.90091913981047</v>
+        <v>27.09102288522401</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>54.3371378374803</v>
+        <v>27.0910229322522</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>62.49883076115906</v>
+        <v>27.09102294439983</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>42.26311380218421</v>
+        <v>27.09102286547126</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>35.99120864520138</v>
+        <v>27.09102286262164</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>45.9254716304316</v>
+        <v>27.09102288001945</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>51.49483990402262</v>
+        <v>27.09102288681414</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>17.40456567205213</v>
+        <v>27.09102282689844</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>40.46865435334011</v>
+        <v>27.09102287276944</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>48.60050869832462</v>
+        <v>27.09102288522148</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>16.11883958313045</v>
+        <v>27.09102284109997</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>35.08025720866429</v>
+        <v>27.09102288187509</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>42.5566007365636</v>
+        <v>27.09102289486503</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>11.52739508852606</v>
+        <v>27.09102284418508</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>33.70381351683044</v>
+        <v>27.09102288784728</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>41.67621723002203</v>
+        <v>27.09102290239092</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>19.55880208342333</v>
+        <v>27.09102285649347</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>42.81363577417201</v>
+        <v>27.09102290100026</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>51.10835784285497</v>
+        <v>27.09102291414915</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>47.19738521002287</v>
+        <v>27.09102290909534</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>57.36185689625263</v>
+        <v>27.09102292633889</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>63.10528095160543</v>
+        <v>27.09102293207867</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>26.01725024052769</v>
+        <v>27.09102287153278</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>50.37762103218918</v>
+        <v>27.09102291751919</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>58.62419924541773</v>
+        <v>27.09102292996612</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>15.00480661644496</v>
+        <v>27.09102274137806</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>28.83805668662941</v>
+        <v>27.09102277425614</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>33.45397002129736</v>
+        <v>27.09102278424028</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>10.73913833420548</v>
+        <v>27.09102274350329</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>27.63725818557146</v>
+        <v>27.09102277973538</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>32.31252209138876</v>
+        <v>27.09102279061753</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>16.14918419604716</v>
+        <v>27.09102274913501</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>33.51221372167134</v>
+        <v>27.09102278544362</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>38.3915616624118</v>
+        <v>27.09102279540975</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>33.99703923595878</v>
+        <v>27.09102279761375</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>40.0188064311076</v>
+        <v>27.09102281127477</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>43.37364382104771</v>
+        <v>27.09102281593733</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>17.57314699066383</v>
+        <v>27.09102276915123</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>33.60528538080663</v>
+        <v>27.09102280532989</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>39.8122395089729</v>
+        <v>27.09102281530274</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>16.79036556332645</v>
+        <v>27.09102279761368</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>34.59612981153358</v>
+        <v>27.09102283585207</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>40.51372364459161</v>
+        <v>27.09102284770182</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>10.24599155019625</v>
+        <v>27.09102279800921</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>30.47854010944801</v>
+        <v>27.09102283899089</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>37.04630856943967</v>
+        <v>27.09102285241137</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>17.26361787718083</v>
+        <v>27.09102280860078</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>38.90833013594689</v>
+        <v>27.09102285035987</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>18.72674261114914</v>
+        <v>27.09102275281113</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>33.1493059699598</v>
+        <v>27.09102278734397</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>37.76314064029673</v>
+        <v>27.09102279729851</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>15.25382019293956</v>
+        <v>27.09102275676834</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>32.86924200582041</v>
+        <v>27.09102279493332</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>37.56031913080967</v>
+        <v>27.09102280587039</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>20.9422967464413</v>
+        <v>27.09102276305675</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>38.97220538001383</v>
+        <v>27.09102280117047</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>43.86574749086137</v>
+        <v>27.09102281113388</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>39.62280276053384</v>
+        <v>27.09102281333574</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>45.7414003249859</v>
+        <v>27.09102282722782</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>49.15114227159437</v>
+        <v>27.09102283191576</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>22.46570129901717</v>
+        <v>27.09102278302311</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>39.23756169607127</v>
+        <v>27.09102282109432</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>45.4335561771057</v>
+        <v>27.09102283093612</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>21.6123967677664</v>
+        <v>27.09102281301449</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>40.10689962570882</v>
+        <v>27.09102285316309</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>46.06993332720809</v>
+        <v>27.09102286504246</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>16.00897540444486</v>
+        <v>27.09102281554535</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>37.07129119485028</v>
+        <v>27.09102285874784</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>43.71277168012486</v>
+        <v>27.0910228722925</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>23.41955866540333</v>
+        <v>27.09102282704265</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>45.84393264319378</v>
+        <v>27.09102287089143</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>19.22068452765522</v>
+        <v>27.09102275528623</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>33.69030134988066</v>
+        <v>27.09102278971217</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>38.28435425642077</v>
+        <v>27.09102279956037</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>16.02188124408814</v>
+        <v>27.09102275974647</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>33.68305117376854</v>
+        <v>27.09102279781099</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>38.35863012324518</v>
+        <v>27.09102280864401</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>21.70827494859521</v>
+        <v>27.09102276599679</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>39.77324755594871</v>
+        <v>27.09102280398221</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>44.64874828528961</v>
+        <v>27.09102281384425</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>40.47191154604125</v>
+        <v>27.0910228159546</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>46.56529026496918</v>
+        <v>27.09102282970413</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>49.97501606061509</v>
+        <v>27.09102283435995</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>23.24669577140934</v>
+        <v>27.09102278560439</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>40.10060430688101</v>
+        <v>27.0910228236189</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>46.26313664409779</v>
+        <v>27.09102283334297</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>22.34223339253773</v>
+        <v>27.09102281549173</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>40.87392000800912</v>
+        <v>27.09102285550175</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>46.82014181229916</v>
+        <v>27.09102286728198</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>17.05768870052131</v>
+        <v>27.09102281859595</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>38.16163641331789</v>
+        <v>27.09102286167818</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>44.79118247746998</v>
+        <v>27.09102287512929</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>24.48209631981304</v>
+        <v>27.09102283002445</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>46.93144621343474</v>
+        <v>27.0910228737167</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>17.61004623599395</v>
+        <v>27.0910227466564</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>32.00654795648852</v>
+        <v>27.09102278022105</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>36.64746851316882</v>
+        <v>27.09102279021859</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>13.73532977748618</v>
+        <v>27.09102275039174</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>31.33002857623537</v>
+        <v>27.09102278744303</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>36.03636019331861</v>
+        <v>27.09102279837693</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>19.45629902295732</v>
+        <v>27.09102275609481</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>37.4816171465372</v>
+        <v>27.0910227931358</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>42.40130410935777</v>
+        <v>27.09102280312648</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>38.10934619495287</v>
+        <v>27.09102280505568</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>44.28150265273798</v>
+        <v>27.09102281870496</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>47.69664746157896</v>
+        <v>27.09102282342401</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>20.96963209493276</v>
+        <v>27.09102277566253</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>37.67706022183566</v>
+        <v>27.09102281277419</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>43.92710958321631</v>
+        <v>27.09102282271072</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>20.12152999229608</v>
+        <v>27.09102280458248</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>38.60564055085593</v>
+        <v>27.09102284360475</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>44.59902762129796</v>
+        <v>27.09102285552537</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>14.04121551220412</v>
+        <v>27.09102280679584</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>35.08705305504733</v>
+        <v>27.09102284872003</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>41.74934384201769</v>
+        <v>27.09102286227824</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>21.47420560708611</v>
+        <v>27.09102281749487</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>43.91101430926639</v>
+        <v>27.09102286009757</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>45.53496652811297</v>
+        <v>27.09102286240262</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>39.72039832948133</v>
+        <v>27.09102285970545</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>49.15741810455145</v>
+        <v>27.09102287617212</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>53.68370215360694</v>
+        <v>27.0910228820882</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>20.73976311723698</v>
+        <v>27.0910228252875</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>43.3339834621375</v>
+        <v>27.09102286876261</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>50.15164673560162</v>
+        <v>27.09102288029976</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>19.95351530124594</v>
+        <v>27.09102283954012</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>39.00916019326927</v>
+        <v>27.09102287843152</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>45.15335659622008</v>
+        <v>27.09102289022341</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>14.67995207896585</v>
+        <v>27.09102284012507</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>36.95572916318047</v>
+        <v>27.09102288190022</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>43.31484995916566</v>
+        <v>27.09102289504372</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>23.35884687443685</v>
+        <v>27.0910228528958</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>46.44014869761577</v>
+        <v>27.09102289534298</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>53.27589716733663</v>
+        <v>27.09102290724799</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>49.61746801967932</v>
+        <v>27.09102290258389</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>59.29521697146023</v>
+        <v>27.09102291884485</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>64.0491196428701</v>
+        <v>27.09102292386817</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>28.33103939295765</v>
+        <v>27.09102286657074</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>52.27288277565118</v>
+        <v>27.09102291014397</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>59.09897737658881</v>
+        <v>27.09102292162889</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>52.54188098948006</v>
+        <v>27.09102288299584</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>46.73461371343806</v>
+        <v>27.0910228797901</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>56.27974204059397</v>
+        <v>27.09102289651675</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>60.88321656704666</v>
+        <v>27.09102290245421</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>26.99113734471905</v>
+        <v>27.09102284346608</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>50.46098849121169</v>
+        <v>27.09102288912161</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>57.32146933008003</v>
+        <v>27.09102290054275</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>25.55347293774816</v>
+        <v>27.09102285687727</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>45.29469943295715</v>
+        <v>27.09102289769412</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>51.45227924975852</v>
+        <v>27.09102290945635</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>21.21336095268105</v>
+        <v>27.09102285948507</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>44.31739605937666</v>
+        <v>27.09102290352246</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>50.71071209428848</v>
+        <v>27.09102291671554</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>30.35414049394459</v>
+        <v>27.09102287321759</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>54.21768615784012</v>
+        <v>27.09102291777948</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>61.08269482132313</v>
+        <v>27.09102292966618</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>57.44839573614232</v>
+        <v>27.09102292444215</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>67.23126993033844</v>
+        <v>27.09102294094393</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>72.04069939928272</v>
+        <v>27.09102294596325</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>35.37046662062205</v>
+        <v>27.09102288652183</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>60.16722146074647</v>
+        <v>27.0910229322321</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>67.02015066623228</v>
+        <v>27.09102294352348</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>53.61370781530169</v>
+        <v>27.09102288572659</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>47.844452107094</v>
+        <v>27.09102288235858</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>57.33800348214433</v>
+        <v>27.0910228989027</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>61.93771346410998</v>
+        <v>27.09102290479984</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>28.05155271427911</v>
+        <v>27.0910228460922</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>51.58352452828296</v>
+        <v>27.09102289164125</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>58.41851666351139</v>
+        <v>27.09102290294208</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>26.49453947277273</v>
+        <v>27.09102285931624</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>46.26709839716689</v>
+        <v>27.09102290001062</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>52.39574401975385</v>
+        <v>27.09102291165117</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>22.46363624217344</v>
+        <v>27.09102286247063</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>45.59858236343823</v>
+        <v>27.09102290640784</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>51.96810765136082</v>
+        <v>27.09102291948122</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>31.62268567982823</v>
+        <v>27.09102287612608</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>55.50550526438175</v>
+        <v>27.09102292054791</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>62.33993333155424</v>
+        <v>27.09102293231388</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>58.72903103594054</v>
+        <v>27.09102292695137</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>68.45989679178498</v>
+        <v>27.09102294327211</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>73.25771095389379</v>
+        <v>27.0910229482525</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>36.60672518172335</v>
+        <v>27.09102288906898</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>61.45365252376607</v>
+        <v>27.0910229346923</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>68.27622559956454</v>
+        <v>27.0910229458368</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>50.64032389051926</v>
+        <v>27.09102287222701</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>44.85149799989816</v>
+        <v>27.09102286886121</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>54.49772155652301</v>
+        <v>27.09102288527833</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>59.10644134567393</v>
+        <v>27.09102289126675</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>25.08663599422008</v>
+        <v>27.09102283361346</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>48.52933593706088</v>
+        <v>27.09102287812688</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>55.43395800437965</v>
+        <v>27.09102288966115</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>23.66570411046378</v>
+        <v>27.09102284779779</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>43.40937901962637</v>
+        <v>27.09102288754403</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>49.60559711944695</v>
+        <v>27.09102289935037</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>18.86387191669134</v>
+        <v>27.09102285018027</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>41.97413805784013</v>
+        <v>27.09102289298524</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>48.39276935228168</v>
+        <v>27.09102290619641</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>28.01439873883253</v>
+        <v>27.09102286309706</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>51.90357748975443</v>
+        <v>27.09102290646176</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>58.81226061806363</v>
+        <v>27.0910229183832</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>55.21393595147778</v>
+        <v>27.09102291306044</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>65.10027988980852</v>
+        <v>27.09102292926731</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>69.92607478823624</v>
+        <v>27.09102293434702</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>33.11203192928325</v>
+        <v>27.09102287610437</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>57.90479693768697</v>
+        <v>27.09102292077255</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>64.80284129446903</v>
+        <v>27.09102293218335</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>4.645227642423229</v>
+        <v>27.09102272193045</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>16.85348124482897</v>
+        <v>27.09102275562881</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>22.20435775893087</v>
+        <v>27.09102276653634</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>0.1329210578067404</v>
+        <v>27.09102272436093</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>15.22392061213027</v>
+        <v>27.09102276136202</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>20.86707065094268</v>
+        <v>27.0910227732569</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>4.538028852985587</v>
+        <v>27.09102272914073</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>20.35823184204103</v>
+        <v>27.09102276639369</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>26.05042286398077</v>
+        <v>27.09102277730471</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>22.17559379688569</v>
+        <v>27.09102278130492</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>27.91479313369211</v>
+        <v>27.09102279570835</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>31.89491383419266</v>
+        <v>27.0910228010117</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>7.56762389746336</v>
+        <v>27.09102275303677</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>22.31186650507996</v>
+        <v>27.09102279028031</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.49085399542183</v>
+        <v>27.09102280114847</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>5.806333326149751</v>
+        <v>27.09102278217976</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>22.36407863448846</v>
+        <v>27.0910228214545</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.48935843330792</v>
+        <v>27.0910228346082</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-0.9564068739836067</v>
+        <v>27.09102278291655</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>17.79153116736952</v>
+        <v>27.09102282476861</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>25.84369256550924</v>
+        <v>27.09102283962746</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>4.819083025335271</v>
+        <v>27.09102279271288</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>25.31473308900058</v>
+        <v>27.0910228356202</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>8.617002446464195</v>
+        <v>27.09102273411944</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>21.42501139847983</v>
+        <v>27.09102276956465</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>26.7888887026266</v>
+        <v>27.09102278045458</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>4.936361591733696</v>
+        <v>27.09102273853064</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>20.75314924325254</v>
+        <v>27.09102277754248</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>26.43346140723888</v>
+        <v>27.0910227895324</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>9.645716323519451</v>
+        <v>27.09102274406778</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>26.1472073534036</v>
+        <v>27.09102278322863</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>31.87184031596273</v>
+        <v>27.0910227941557</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>28.15107537950034</v>
+        <v>27.09102279818068</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>33.98522536808022</v>
+        <v>27.09102281283955</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>38.03088101590039</v>
+        <v>27.0910228181537</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>12.7890221276491</v>
+        <v>27.09102276795976</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>28.28612450752234</v>
+        <v>27.09102280721676</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>35.47233303505749</v>
+        <v>27.09102281795433</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>10.92338933033135</v>
+        <v>27.09102279871316</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>28.19254638863634</v>
+        <v>27.09102284001046</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>35.38701708802783</v>
+        <v>27.09102285322261</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>5.150213601209337</v>
+        <v>27.09102280175883</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>24.74538712136328</v>
+        <v>27.0910228459282</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>32.90460863556474</v>
+        <v>27.09102286097112</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>11.35018789031747</v>
+        <v>27.09102281258577</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>32.65284575684205</v>
+        <v>27.09102285770764</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>9.234033096348778</v>
+        <v>27.09102273701376</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>22.10741863862317</v>
+        <v>27.09102277235905</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>27.45069681644446</v>
+        <v>27.09102278313319</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>5.838852705267861</v>
+        <v>27.09102274195217</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>21.72013663910394</v>
+        <v>27.09102278086868</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>27.384175664822</v>
+        <v>27.0910227927502</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>10.56035819860269</v>
+        <v>27.09102274748667</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>27.11559660046863</v>
+        <v>27.09102278652793</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>32.8215445036771</v>
+        <v>27.09102279734547</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>29.15810822720091</v>
+        <v>27.09102280124125</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>34.96945474804382</v>
+        <v>27.09102281575457</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>39.01389945067645</v>
+        <v>27.09102282102415</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>13.70882575689116</v>
+        <v>27.09102277096146</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>29.30442079076189</v>
+        <v>27.09102281017253</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>36.45622945164211</v>
+        <v>27.09102282078476</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>11.7861757220359</v>
+        <v>27.09102280160382</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.10994896116431</v>
+        <v>27.0910228427648</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>36.28521296589663</v>
+        <v>27.09102285587296</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>6.344976160077557</v>
+        <v>27.09102280524944</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>25.99908712891353</v>
+        <v>27.09102284929956</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>34.14473694586147</v>
+        <v>27.09102286425064</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>12.57599114290222</v>
+        <v>27.09102281604398</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>33.92134892910166</v>
+        <v>27.09102286101355</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>7.303444950867021</v>
+        <v>27.0910227278906</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>20.05926740710057</v>
+        <v>27.09102276231919</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>25.45434659631488</v>
+        <v>27.09102277324739</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>3.197000644080173</v>
+        <v>27.0910227320149</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>18.96605034401623</v>
+        <v>27.0910227698684</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>24.66622282772923</v>
+        <v>27.09102278184515</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>7.920462697801639</v>
+        <v>27.09102273694975</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>24.39038867587349</v>
+        <v>27.09102277498726</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>30.14502336053216</v>
+        <v>27.09102278593499</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>26.38850824755965</v>
+        <v>27.09102278959806</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>32.27362194484485</v>
+        <v>27.09102280400234</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>36.32690339915705</v>
+        <v>27.0910228093505</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>11.06963390466715</v>
+        <v>27.0910227603472</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>26.4802151479768</v>
+        <v>27.09102279858382</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>33.72574356793221</v>
+        <v>27.09102280942943</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>9.210592396816057</v>
+        <v>27.09102278998544</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>26.44514188103221</v>
+        <v>27.09102283008254</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>33.67757041200771</v>
+        <v>27.09102284333603</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>2.936966441620967</v>
+        <v>27.09102279262851</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>22.49145935489271</v>
+        <v>27.09102283545052</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>30.67825178027465</v>
+        <v>27.09102285050588</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>9.135951383772969</v>
+        <v>27.09102280262095</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>30.42605468905113</v>
+        <v>27.09102284641932</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>33.2546114446429</v>
+        <v>27.09102284900218</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>27.24086507530129</v>
+        <v>27.0910228472491</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>36.81309445646627</v>
+        <v>27.0910228647744</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>42.28749909717396</v>
+        <v>27.09102287154745</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>9.622851495132764</v>
+        <v>27.09102281243846</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>31.57150608340984</v>
+        <v>27.09102285735438</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>39.61906917307724</v>
+        <v>27.09102286998438</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>10.28755388067417</v>
+        <v>27.09102282790801</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>28.24539932913368</v>
+        <v>27.09102286795289</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>35.63103317040373</v>
+        <v>27.09102288101575</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>4.939330155152383</v>
+        <v>27.09102282879414</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>25.94710074079348</v>
+        <v>27.091022871562</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>33.84193102596269</v>
+        <v>27.09102288611173</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>12.53301842557453</v>
+        <v>27.09102284096213</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>34.66176865377024</v>
+        <v>27.09102288467642</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>42.83409636363329</v>
+        <v>27.09102289789293</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>39.1976119770533</v>
+        <v>27.09102289393698</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>48.96374270409478</v>
+        <v>27.09102291128832</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>54.63739965576048</v>
+        <v>27.09102291700335</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>18.99089788804978</v>
+        <v>27.09102285735204</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>42.26936155636411</v>
+        <v>27.0910229023839</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>50.42262221638315</v>
+        <v>27.09102291498903</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>40.69239482140846</v>
+        <v>27.09102287118784</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>34.6676540211497</v>
+        <v>27.09102286888295</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>44.35508151094334</v>
+        <v>27.09102288670188</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>49.92168985602095</v>
+        <v>27.0910228934859</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>16.26358992253127</v>
+        <v>27.091022832049</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>39.11454785219078</v>
+        <v>27.09102287929953</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>47.23137187317033</v>
+        <v>27.0910228918259</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>16.2760064509004</v>
+        <v>27.09102284654962</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>34.94019823163345</v>
+        <v>27.09102288863877</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>42.36385405748062</v>
+        <v>27.09102290169914</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>11.8992491625176</v>
+        <v>27.09102284961423</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>33.75200134963374</v>
+        <v>27.09102289474425</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>41.71502716665636</v>
+        <v>27.09102290940309</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>19.9963513888649</v>
+        <v>27.09102286287866</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>42.93293668177513</v>
+        <v>27.09102290883976</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>51.16318905236416</v>
+        <v>27.09102292207013</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>47.5280646793808</v>
+        <v>27.09102291750713</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>57.40941243821206</v>
+        <v>27.09102293512052</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>63.15180509883336</v>
+        <v>27.09102294082539</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>26.50292955462918</v>
+        <v>27.09102287888695</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>50.65748642341809</v>
+        <v>27.09102292620259</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>58.86540739857822</v>
+        <v>27.09102293862766</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>41.94320807987107</v>
+        <v>27.09102287439607</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>35.94851203408826</v>
+        <v>27.09102287189139</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>45.58538982423774</v>
+        <v>27.09102288951846</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>51.14577378365331</v>
+        <v>27.09102289625257</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>17.48054999585647</v>
+        <v>27.09102283510468</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>40.40746124869268</v>
+        <v>27.09102288225554</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>48.4973825275239</v>
+        <v>27.09102289465876</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>17.36689299597507</v>
+        <v>27.09102284940979</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>36.07839312804568</v>
+        <v>27.09102289137973</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>43.47000513916206</v>
+        <v>27.09102290431226</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>13.30886587881597</v>
+        <v>27.09102285304666</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>35.20803953390519</v>
+        <v>27.09102289807849</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>43.14478901168491</v>
+        <v>27.09102291261734</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>21.44281861412617</v>
+        <v>27.09102286627033</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>44.41460811091146</v>
+        <v>27.09102291209648</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>52.61152738852633</v>
+        <v>27.09102292520095</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>48.98972539163802</v>
+        <v>27.09102292046598</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>58.82137773720894</v>
+        <v>27.09102293788586</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>64.54931673631579</v>
+        <v>27.09102294354441</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>27.9062213747652</v>
+        <v>27.09102288187018</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>52.12332553324198</v>
+        <v>27.09102292910325</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>60.29899943049583</v>
+        <v>27.09102294137785</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>38.50414019204608</v>
+        <v>27.09102285992363</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>32.51037821268982</v>
+        <v>27.09102285740759</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>42.30059996563338</v>
+        <v>27.09102287488079</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>47.87562442799965</v>
+        <v>27.09102288173021</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>14.10379927737972</v>
+        <v>27.09102282172881</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>36.90991737218857</v>
+        <v>27.09102286774567</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>45.07649727069605</v>
+        <v>27.09102288040431</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>14.14507998736563</v>
+        <v>27.09102283715746</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>32.79099236991451</v>
+        <v>27.09102287810156</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>40.2590085440736</v>
+        <v>27.09102289120705</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>9.288616181180345</v>
+        <v>27.09102283992496</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>31.12689809120192</v>
+        <v>27.0910228837571</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>39.12079807774735</v>
+        <v>27.09102289843008</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>17.37010789441223</v>
+        <v>27.09102285233368</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>40.31150859266255</v>
+        <v>27.0910228970191</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>48.59079256141801</v>
+        <v>27.09102291028477</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>45.00838942768267</v>
+        <v>27.09102290557324</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>54.9925807530996</v>
+        <v>27.0910229228637</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>60.75435277097748</v>
+        <v>27.09102292864125</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>23.97635568918075</v>
+        <v>27.09102286799053</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>48.11158036799058</v>
+        <v>27.0910229141747</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>56.36953552648873</v>
+        <v>27.09102292673982</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>5.266950963192073</v>
+        <v>27.09102272955203</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>16.61366429033026</v>
+        <v>27.09102276045122</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>21.41241169077689</v>
+        <v>27.09102277037018</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>0.9360068892248066</v>
+        <v>27.09102273146779</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>14.94044676494411</v>
+        <v>27.09102276540202</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>19.99016821572236</v>
+        <v>27.09102277622588</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>5.031382961506068</v>
+        <v>27.09102273588456</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>19.6839905246258</v>
+        <v>27.09102277002825</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>24.7836513302615</v>
+        <v>27.09102277996033</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>21.34649606135305</v>
+        <v>27.09102278362312</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>26.66731990586885</v>
+        <v>27.09102279681834</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>30.23778046959399</v>
+        <v>27.09102280160932</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>7.653748446138533</v>
+        <v>27.09102275755931</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>21.3245391187641</v>
+        <v>27.09102279170206</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>27.73918545594655</v>
+        <v>27.09102280158135</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>7.472437308341021</v>
+        <v>27.0910227854559</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>22.8385184640536</v>
+        <v>27.09102282152602</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>29.25603561341918</v>
+        <v>27.09102283347357</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>1.145891578687756</v>
+        <v>27.09102278590793</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>18.55836883623124</v>
+        <v>27.09102282438074</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>25.80383835776269</v>
+        <v>27.09102283788789</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>6.612546551707307</v>
+        <v>27.09102279502</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>25.58912747238514</v>
+        <v>27.09102283441743</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>8.840675218099136</v>
+        <v>27.09102274057836</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>20.7380873215195</v>
+        <v>27.09102277307104</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>25.54766968767746</v>
+        <v>27.09102278297714</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>5.27623363074466</v>
+        <v>27.09102274430241</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>19.94827956455148</v>
+        <v>27.09102278007651</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>25.0302538118716</v>
+        <v>27.09102279098731</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>9.642491244610756</v>
+        <v>27.0910227493962</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>24.92041185386015</v>
+        <v>27.09102278528065</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>30.048110810954</v>
+        <v>27.0910227952295</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>26.75727880760092</v>
+        <v>27.09102279891591</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>32.16481411039903</v>
+        <v>27.0910228123435</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>35.79607380275869</v>
+        <v>27.09102281715024</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>12.3724262028641</v>
+        <v>27.09102277106831</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>26.73540223530567</v>
+        <v>27.091022807048</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>33.15442005347211</v>
+        <v>27.09102281681118</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>12.11983569740362</v>
+        <v>27.09102280048607</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>28.13905254662343</v>
+        <v>27.09102283840416</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>34.61945512203741</v>
+        <v>27.09102285040791</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>6.706029612159455</v>
+        <v>27.09102280305076</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>24.89838073136822</v>
+        <v>27.09102284364745</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>32.24043965484571</v>
+        <v>27.0910228573222</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>12.55536167569494</v>
+        <v>27.0910228130906</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>32.27254853527096</v>
+        <v>27.09102285451188</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>9.392594851439572</v>
+        <v>27.09102274320708</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>21.34800761368899</v>
+        <v>27.09102277560537</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>26.13984035653938</v>
+        <v>27.09102278540788</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>6.092447618969373</v>
+        <v>27.09102274741542</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>20.82182874493537</v>
+        <v>27.09102278309998</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>25.8899193706978</v>
+        <v>27.09102279391318</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>10.46689005088474</v>
+        <v>27.09102275250098</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>25.79206875954049</v>
+        <v>27.09102278827267</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>30.90374021194612</v>
+        <v>27.09102279812337</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>27.66678996718903</v>
+        <v>27.09102280169309</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>33.05255061718251</v>
+        <v>27.09102281498649</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>36.683754770227</v>
+        <v>27.09102281975566</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>13.20439756526509</v>
+        <v>27.09102277379648</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>27.65602514176639</v>
+        <v>27.09102280973066</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>34.04469067249994</v>
+        <v>27.09102281938096</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>12.89361522884808</v>
+        <v>27.09102280310816</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>28.96075058790672</v>
+        <v>27.09102284089868</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>35.42501916586895</v>
+        <v>27.09102285280953</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>7.786717294806255</v>
+        <v>27.0910228062244</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>26.03107445430328</v>
+        <v>27.09102284670978</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>33.36207500778394</v>
+        <v>27.09102286030182</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>13.6610523627625</v>
+        <v>27.09102281622764</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>33.41506692550551</v>
+        <v>27.09102285750627</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>7.64359686665918</v>
+        <v>27.09102273490402</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>19.49539008017935</v>
+        <v>27.09102276646606</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>24.33214405617278</v>
+        <v>27.09102277640757</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>3.686428891374693</v>
+        <v>27.091022738366</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>18.31663351120762</v>
+        <v>27.0910227730781</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>23.41549606932863</v>
+        <v>27.09102278397741</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>8.068894511093941</v>
+        <v>27.09102274290802</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>23.32020181051667</v>
+        <v>27.09102277776318</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.4740318795113</v>
+        <v>27.09102278773181</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>25.15012443642017</v>
+        <v>27.09102279108837</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>30.60519108429343</v>
+        <v>27.09102280428148</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>34.2424153543779</v>
+        <v>27.09102280911934</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>10.80136803726428</v>
+        <v>27.09102276413196</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>25.08652977039991</v>
+        <v>27.09102279917704</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>31.55841571782271</v>
+        <v>27.09102280903756</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>10.56425079452649</v>
+        <v>27.0910227925032</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>26.55410190797706</v>
+        <v>27.09102282932269</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>33.06778346542135</v>
+        <v>27.09102284136453</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>4.68846873120085</v>
+        <v>27.09102279470178</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>22.84548561175029</v>
+        <v>27.09102283406314</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>30.21165735033158</v>
+        <v>27.09102284774898</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>10.54146676439195</v>
+        <v>27.09102280397622</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>30.24965606563992</v>
+        <v>27.09102284418487</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>32.74349817995228</v>
+        <v>27.09102284658091</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>27.33025263807741</v>
+        <v>27.09102284501989</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>36.13362935939718</v>
+        <v>27.09102286105055</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>41.04146065455945</v>
+        <v>27.09102286715837</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>10.87235120349107</v>
+        <v>27.09102281297082</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>31.1481567450131</v>
+        <v>27.09102285419155</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>38.38821492120265</v>
+        <v>27.09102286569612</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>11.54410903460966</v>
+        <v>27.09102282738862</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>28.18999604478583</v>
+        <v>27.09102286416196</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>34.8669747133294</v>
+        <v>27.091022876034</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>6.494820274083306</v>
+        <v>27.09102282798938</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>25.97605133876969</v>
+        <v>27.09102286730084</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>33.09219089587877</v>
+        <v>27.09102288052951</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>13.63244452761374</v>
+        <v>27.09102283927078</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>34.09876751425571</v>
+        <v>27.09102287940598</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>41.48195743218097</v>
+        <v>27.09102289141945</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>38.20747233258076</v>
+        <v>27.09102288783995</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>47.19302917437905</v>
+        <v>27.09102290370091</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>52.30461900546595</v>
+        <v>27.091022908868</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>19.41730650362528</v>
+        <v>27.09102285418129</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>40.94157719155783</v>
+        <v>27.09102289550995</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>48.27907360600354</v>
+        <v>27.09102290697714</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>39.5170458933711</v>
+        <v>27.09102286676642</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>34.09850797465233</v>
+        <v>27.0910228647049</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>43.00603006963425</v>
+        <v>27.09102288100095</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>47.99932450441424</v>
+        <v>27.09102288712469</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>16.91701219888038</v>
+        <v>27.09102283080619</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>38.02250782227927</v>
+        <v>27.09102287415886</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>45.3243284147317</v>
+        <v>27.0910228855712</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>16.99172928394254</v>
+        <v>27.09102284435744</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>34.28616933805129</v>
+        <v>27.09102288299755</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>40.9975004474699</v>
+        <v>27.0910228948706</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>12.84018134954264</v>
+        <v>27.09102284695527</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>33.09903539322142</v>
+        <v>27.09102288843126</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>40.27628971795977</v>
+        <v>27.0910229017594</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>20.43279414754637</v>
+        <v>27.09102285922469</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>41.64060328521114</v>
+        <v>27.0910229014121</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>49.07569276590267</v>
+        <v>27.09102291344037</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>45.80675116734183</v>
+        <v>27.09102290930889</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>54.89625788477078</v>
+        <v>27.0910229254085</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>60.07159822248884</v>
+        <v>27.09102293057055</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>26.26453381295009</v>
+        <v>27.09102287379259</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>48.59473946530188</v>
+        <v>27.09102291720648</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>55.98048033836744</v>
+        <v>27.09102292851107</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>40.64476331537895</v>
+        <v>27.09102286967339</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>35.25506487393707</v>
+        <v>27.09102286742964</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>44.1154380773303</v>
+        <v>27.09102288354975</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>49.10446568795825</v>
+        <v>27.09102288963088</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>18.0167118199795</v>
+        <v>27.09102283357782</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>39.19038948294794</v>
+        <v>27.09102287683612</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>46.46878580916984</v>
+        <v>27.09102288813711</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>17.97526728563065</v>
+        <v>27.09102284695016</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>35.3111366281067</v>
+        <v>27.09102288547872</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>41.99446806326723</v>
+        <v>27.09102289723693</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>14.11910631965395</v>
+        <v>27.09102285007503</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>34.41870854913235</v>
+        <v>27.09102289145934</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>41.57321953608862</v>
+        <v>27.09102290467904</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>21.74197993335593</v>
+        <v>27.0910228623003</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>42.98002036269376</v>
+        <v>27.09102290436136</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>50.38589872733323</v>
+        <v>27.09102291627637</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>47.13036199002099</v>
+        <v>27.09102291198774</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>56.17349036365448</v>
+        <v>27.09102292791063</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>61.33676081141282</v>
+        <v>27.09102293303259</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>27.53627907855103</v>
+        <v>27.09102287649731</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>49.92256389863597</v>
+        <v>27.09102291983373</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>57.27988805998482</v>
+        <v>27.09102293100182</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>37.52808904149245</v>
+        <v>27.09102285646246</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>32.13725097843044</v>
+        <v>27.09102285420543</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>41.13956979770347</v>
+        <v>27.09102287018724</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>46.13960025099649</v>
+        <v>27.09102287636983</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>14.95113061721056</v>
+        <v>27.0910228213642</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>36.01670094846796</v>
+        <v>27.09102286358802</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>43.36307445536396</v>
+        <v>27.09102287511997</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>15.05031063935868</v>
+        <v>27.09102283575567</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>32.32987314413146</v>
+        <v>27.09102287334997</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>39.08098333872131</v>
+        <v>27.09102288526309</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>10.45525936446082</v>
+        <v>27.09102283808351</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>30.70246665151017</v>
+        <v>27.0910228783711</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>37.9073561168241</v>
+        <v>27.09102289171086</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>18.0380990430736</v>
+        <v>27.09102284956833</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>39.25222987098107</v>
+        <v>27.09102289058939</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>46.73146867718776</v>
+        <v>27.09102290264928</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>43.5099942915385</v>
+        <v>27.09102289838061</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>52.69455850961815</v>
+        <v>27.09102291418559</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>57.88693511440384</v>
+        <v>27.0910229194136</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>23.95951780251827</v>
+        <v>27.09102286381152</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>46.27302670067721</v>
+        <v>27.09102290619388</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>53.70385660218248</v>
+        <v>27.09102291762417</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>6.904061572112084</v>
+        <v>27.09102272530523</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>20.28977416815176</v>
+        <v>27.0910227594288</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>25.31140462777887</v>
+        <v>27.09102277005776</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>2.288586987720237</v>
+        <v>27.09102272686689</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>18.6184966847763</v>
+        <v>27.09102276437435</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>23.82516042345936</v>
+        <v>27.09102277595885</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>7.176359129416742</v>
+        <v>27.09102273217264</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>24.20224956152069</v>
+        <v>27.09102276985198</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.52484842376984</v>
+        <v>27.09102278047668</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>25.38907557436726</v>
+        <v>27.09102278377145</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>31.38470062469861</v>
+        <v>27.0910227980367</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>35.0349112634387</v>
+        <v>27.09102280313114</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>9.384101897615743</v>
+        <v>27.09102275468727</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>25.30951343075615</v>
+        <v>27.09102279240927</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>32.02534183521094</v>
+        <v>27.09102280301425</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>8.379671969371323</v>
+        <v>27.09102278418933</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>25.90464117936277</v>
+        <v>27.09102282388498</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>32.51673328717128</v>
+        <v>27.09102283660912</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>1.571220938109839</v>
+        <v>27.0910227841402</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>21.40493482062625</v>
+        <v>27.09102282656899</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>28.7992222112692</v>
+        <v>27.09102284094171</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>7.960318141727534</v>
+        <v>27.09102279458336</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.45705169290063</v>
+        <v>27.09102283793254</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>10.7904815759638</v>
+        <v>27.09102273726035</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>24.78969269565557</v>
+        <v>27.09102277312764</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.8161690772137</v>
+        <v>27.09102278373225</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>7.006004530409047</v>
+        <v>27.09102274077306</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>24.08223730605069</v>
+        <v>27.09102278031261</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.31461893461548</v>
+        <v>27.09102279196555</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>12.1860703152595</v>
+        <v>27.09102274677704</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.90645313215307</v>
+        <v>27.09102278635976</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>35.25156241439054</v>
+        <v>27.09102279698903</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>31.25979934709926</v>
+        <v>27.09102280028673</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>37.35586409692398</v>
+        <v>27.09102281480756</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>41.06876362428513</v>
+        <v>27.09102281992126</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>14.49738171969597</v>
+        <v>27.09102276926404</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>31.19504117318283</v>
+        <v>27.09102280899839</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>37.90624691233726</v>
+        <v>27.09102281946652</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>13.42963106472621</v>
+        <v>27.09102280041979</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>31.67443542346991</v>
+        <v>27.09102284213068</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>38.34466695215309</v>
+        <v>27.09102285489996</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>7.610623003524591</v>
+        <v>27.09102280264869</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>28.30881972390164</v>
+        <v>27.09102284741301</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>35.79430050076407</v>
+        <v>27.09102286193455</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>14.41295470065808</v>
+        <v>27.09102281406334</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>36.72439795738623</v>
+        <v>27.09102285961833</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>11.36768692352904</v>
+        <v>27.09102274002809</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>25.42412088748327</v>
+        <v>27.09102277578662</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>30.43078282492089</v>
+        <v>27.09102278628108</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>7.871914230835362</v>
+        <v>27.09102274408187</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>25.00575156260805</v>
+        <v>27.09102278351979</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>30.22265489275301</v>
+        <v>27.09102279506752</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>13.05664135065997</v>
+        <v>27.09102275005877</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>30.8220739200527</v>
+        <v>27.09102278951184</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>36.14916040881517</v>
+        <v>27.09102280003599</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>32.21751436000857</v>
+        <v>27.09102280322075</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>38.28938844599386</v>
+        <v>27.0910228175955</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>42.00290769878092</v>
+        <v>27.09102282267303</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>15.37859618335342</v>
+        <v>27.09102277215613</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>32.16765875667936</v>
+        <v>27.09102281183498</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>38.84452304455839</v>
+        <v>27.09102282218074</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>14.25543724907306</v>
+        <v>27.09102280318853</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>32.54710132266526</v>
+        <v>27.09102284475544</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>39.20023805519794</v>
+        <v>27.09102285742503</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>8.770892042584688</v>
+        <v>27.09102280602767</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.52161641330698</v>
+        <v>27.09102285066709</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>36.99552359661894</v>
+        <v>27.09102286509768</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>15.59597197228456</v>
+        <v>27.09102281738511</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>37.94174965744607</v>
+        <v>27.09102286277872</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>9.53865354152229</v>
+        <v>27.09102273098021</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>23.4991785428405</v>
+        <v>27.09102276582157</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>28.55332695199265</v>
+        <v>27.09102277647715</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>5.331537013093321</v>
+        <v>27.09102273424254</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>22.37242384918911</v>
+        <v>27.09102277260151</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>27.62043847026019</v>
+        <v>27.09102278426333</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>10.53597951743104</v>
+        <v>27.09102273964633</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>28.239186682065</v>
+        <v>27.09102277809483</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>33.6108538882664</v>
+        <v>27.09102278875782</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.57886390106894</v>
+        <v>27.09102279174059</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>35.72763841189579</v>
+        <v>27.09102280599492</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>39.44537824683646</v>
+        <v>27.09102281115206</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>12.84376470317902</v>
+        <v>27.09102276169136</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>29.46547947496515</v>
+        <v>27.09102280039451</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>36.23287324158438</v>
+        <v>27.09102281097503</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>11.78226191015438</v>
+        <v>27.09102279164751</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>30.00472419323354</v>
+        <v>27.09102283215746</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>36.70817531377904</v>
+        <v>27.09102284497856</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>5.464883211755243</v>
+        <v>27.09102279350868</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>26.13320858594207</v>
+        <v>27.09102283691141</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>33.64152779439152</v>
+        <v>27.0910228514623</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>12.27823846502266</v>
+        <v>27.0910228040922</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>34.59042936724738</v>
+        <v>27.09102284832148</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>36.83948967878888</v>
+        <v>27.0910228508795</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>30.89608535211696</v>
+        <v>27.09102284880039</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>40.51090955193085</v>
+        <v>27.09102286606108</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>45.54613112325551</v>
+        <v>27.09102287257155</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>12.0989996755061</v>
+        <v>27.0910228133857</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>34.82602543275831</v>
+        <v>27.09102285861198</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>42.40005286228723</v>
+        <v>27.09102287101769</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>12.39803626165692</v>
+        <v>27.09102282987543</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>31.27774527948227</v>
+        <v>27.09102287034756</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>38.22880157987509</v>
+        <v>27.09102288301667</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>6.81991480400546</v>
+        <v>27.09102283003542</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>28.84671650655775</v>
+        <v>27.09102287338629</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>36.15113488540043</v>
+        <v>27.09102288749028</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>15.08923474283425</v>
+        <v>27.09102284284246</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>38.14449026281037</v>
+        <v>27.09102288700337</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>45.84187031580466</v>
+        <v>27.09102289981398</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>42.12694810397067</v>
+        <v>27.09102289552797</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>52.00581473376406</v>
+        <v>27.09102291263408</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>57.31087996853925</v>
+        <v>27.09102291814578</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>20.8673282200819</v>
+        <v>27.09102285832483</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>45.02792831999813</v>
+        <v>27.09102290374362</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>52.68808128519741</v>
+        <v>27.09102291607744</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>44.19319488143272</v>
+        <v>27.09102287264492</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>38.23794930525835</v>
+        <v>27.09102287003085</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>47.96720970082681</v>
+        <v>27.09102288757872</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>53.09251178839943</v>
+        <v>27.09102289410712</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>18.64655707756613</v>
+        <v>27.09102283260786</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>42.28919534705799</v>
+        <v>27.09102288015661</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>49.91914687311611</v>
+        <v>27.09102289244549</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>18.2894049408227</v>
+        <v>27.09102284820921</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>37.88378044761379</v>
+        <v>27.09102289071842</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>44.86175661732892</v>
+        <v>27.09102290337053</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>13.68601634680643</v>
+        <v>27.09102285052395</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>36.57351991614893</v>
+        <v>27.09102289625697</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>43.93048532374284</v>
+        <v>27.09102291043465</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>22.44466233039737</v>
+        <v>27.09102286436516</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>46.31537408570622</v>
+        <v>27.09102291076354</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>54.05733099266752</v>
+        <v>27.09102292356966</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>50.34722779824347</v>
+        <v>27.09102291869133</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>60.33911129414075</v>
+        <v>27.09102293606116</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>65.71031356994999</v>
+        <v>27.09102294156597</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>28.26399847770024</v>
+        <v>27.09102287946966</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>53.31561910072159</v>
+        <v>27.09102292716686</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>61.01664422221685</v>
+        <v>27.09102293930524</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>45.39472988918504</v>
+        <v>27.0910228757105</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>39.47125287872134</v>
+        <v>27.09102287291059</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>49.14877898179042</v>
+        <v>27.09102289026764</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>54.27106489386114</v>
+        <v>27.09102289675315</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>19.82321519574767</v>
+        <v>27.09102283554605</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>43.53629824026041</v>
+        <v>27.09102288298646</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>51.14006088713364</v>
+        <v>27.09102289515283</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>19.33799216573227</v>
+        <v>27.09102285094105</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>38.97227497056811</v>
+        <v>27.09102289332311</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>45.92002142016236</v>
+        <v>27.09102290585103</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>15.05719813735814</v>
+        <v>27.09102285383899</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>37.98494600516811</v>
+        <v>27.09102289946822</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>45.31748607297391</v>
+        <v>27.09102291352655</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>23.84330999361973</v>
+        <v>27.09102286761403</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>47.74147145634569</v>
+        <v>27.09102291386821</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>55.45165515397298</v>
+        <v>27.09102292655105</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>51.75827144709243</v>
+        <v>27.09102292151463</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>61.6984837051494</v>
+        <v>27.09102293869407</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>67.0577420052206</v>
+        <v>27.09102294415775</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>29.6241445451966</v>
+        <v>27.09102288233041</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>54.73286554468046</v>
+        <v>27.09102292993868</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>62.40238782270349</v>
+        <v>27.09102294192647</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>42.09319096388852</v>
+        <v>27.09102286138279</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>36.16598480327241</v>
+        <v>27.09102285857241</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>45.99853728904453</v>
+        <v>27.09102287577395</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>51.12880790710059</v>
+        <v>27.09102288237274</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>16.56108057234851</v>
+        <v>27.09102282229646</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>40.16674295767184</v>
+        <v>27.0910228686082</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>47.84365825021118</v>
+        <v>27.09102288103611</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>16.22655458819988</v>
+        <v>27.09102283875045</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>35.81335973370983</v>
+        <v>27.09102288011298</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>42.83320450165618</v>
+        <v>27.0910228928201</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>11.14108487611154</v>
+        <v>27.09102284080192</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>34.02373605416616</v>
+        <v>27.09102288522032</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>41.40858670690746</v>
+        <v>27.09102289942973</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>19.89816195000775</v>
+        <v>27.09102285379157</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>43.78485249699924</v>
+        <v>27.09102289891182</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>51.57363221074876</v>
+        <v>27.09102291176291</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>47.91005339533331</v>
+        <v>27.09102290675814</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>58.00667214905621</v>
+        <v>27.09102292380091</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>63.39503346026385</v>
+        <v>27.0910229293833</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>25.8096339372634</v>
+        <v>27.09102286857046</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>50.84927299305281</v>
+        <v>27.09102291513508</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>58.59843963907498</v>
+        <v>27.09102292741686</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/additive/ranking_test4/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.13</v>
+        <v>0.6860000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.284</v>
+        <v>14.796</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.113</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.174</v>
+        <v>12.335</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.035</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.869</v>
+        <v>5.668</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>27.09102272653347</v>
+        <v>10.3928614446819</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>27.09102276014377</v>
+        <v>7.545724316989126</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27.09102277094017</v>
+        <v>19.22249326067288</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>27.09102272928066</v>
+        <v>1.973338223319356</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>27.09102276622128</v>
+        <v>16.9074966783812</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>27.09102277797485</v>
+        <v>18.09119372429264</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>27.09102273404662</v>
+        <v>5.783670642710252</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>27.09102277121318</v>
+        <v>26.03903817879682</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>27.09102278199579</v>
+        <v>27.68703262929945</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>27.09102278560341</v>
+        <v>10.19918734111171</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>27.09102279991522</v>
+        <v>15.62523597269981</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>27.09102280516764</v>
+        <v>18.62475810291341</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>27.09102275730882</v>
+        <v>21.90202339652633</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>27.09102279439622</v>
+        <v>13.72273281543954</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>27.09102280512873</v>
+        <v>26.8837357461274</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>27.09102278765187</v>
+        <v>15.32255151876072</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>27.09102282682188</v>
+        <v>26.95770715405166</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>27.09102283981856</v>
+        <v>34.54810784467239</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>27.09102278877734</v>
+        <v>5.451332647207519</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>27.09102283053352</v>
+        <v>15.95613956220076</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>27.09102284521277</v>
+        <v>17.77452383537319</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>27.09102279856585</v>
+        <v>1.042721160626062</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>27.09102284136905</v>
+        <v>23.27118585467118</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>27.09102273872337</v>
+        <v>14.84993532648364</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.09102277407488</v>
+        <v>19.49849554249266</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>27.09102278483942</v>
+        <v>23.18032552974012</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>27.09102274342956</v>
+        <v>2.338009381387941</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>27.0910227823721</v>
+        <v>29.14127354817834</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>27.0910227942051</v>
+        <v>27.53684785295573</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>27.09102274894862</v>
+        <v>3.447094630484717</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>27.09102278801521</v>
+        <v>37.71010328551091</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>27.09102279879992</v>
+        <v>35.27066809273244</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>27.09102280243607</v>
+        <v>36.53683441850924</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>27.09102281700096</v>
+        <v>42.23584282957538</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>27.09102282226076</v>
+        <v>43.78386078380983</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>27.09102277220074</v>
+        <v>26.95902215802574</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>27.09102281128347</v>
+        <v>37.7673935510005</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>27.09102282187127</v>
+        <v>41.49110034424784</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>27.09102280410159</v>
+        <v>18.63797070526666</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>27.0910228452859</v>
+        <v>38.92443590817315</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>27.09102285832248</v>
+        <v>44.02908636984323</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>27.09102280751838</v>
+        <v>9.569345914957889</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>27.09102285157936</v>
+        <v>35.01436706580672</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>27.09102286642263</v>
+        <v>42.79052368600389</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>27.0910228633353</v>
+        <v>52.50662370008885</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>27.09102274158228</v>
+        <v>7.920769241871465</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>27.09102277683659</v>
+        <v>15.51546432018236</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>27.0910227874828</v>
+        <v>19.97590359031649</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>27.09102274681218</v>
+        <v>1.104731235719367</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>27.09102278566129</v>
+        <v>28.47541922129703</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>27.09102279738344</v>
+        <v>28.10571722775112</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>27.0910227523301</v>
+        <v>2.92282531663442</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>27.09102279127972</v>
+        <v>38.70467581246645</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>27.09102280195242</v>
+        <v>39.23588909949008</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>27.091022805467</v>
+        <v>39.36097097405477</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>27.09102281988761</v>
+        <v>42.99807808568615</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>27.09102282510206</v>
+        <v>48.79585338167206</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>27.09102277517234</v>
+        <v>16.50069090103508</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>27.091022814211</v>
+        <v>29.74029937882643</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>27.09102282467143</v>
+        <v>34.18582673643563</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>27.09102280692812</v>
+        <v>12.13474171537151</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>27.09102284797921</v>
+        <v>32.29133320192676</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>27.09102286090867</v>
+        <v>40.63216434295437</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>27.09102281093891</v>
+        <v>5.991572217629024</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>27.09102285488271</v>
+        <v>29.43231851961518</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>27.09102286963068</v>
+        <v>42.52558276083585</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>27.09102282171692</v>
+        <v>5.776797305371833</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>27.09102286657454</v>
+        <v>48.95629601225622</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>27.09102273253854</v>
+        <v>1.474670434390234</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>27.09102276688267</v>
+        <v>10.52390419059082</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>27.09102277769111</v>
+        <v>20.17471737668138</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>27.09102273698083</v>
+        <v>1.071180248338774</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>27.09102277477523</v>
+        <v>27.41482141905287</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>27.09102278660237</v>
+        <v>32.84292728235387</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>27.09102274190567</v>
+        <v>0.8367779725098039</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>27.09102277986008</v>
+        <v>37.16610328306957</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>27.09102279066998</v>
+        <v>40.62486046295157</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>27.09102279395506</v>
+        <v>31.93985758813182</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>27.09102280826914</v>
+        <v>35.6134397179372</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>27.0910228135631</v>
+        <v>41.47630674208133</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>27.09102276467537</v>
+        <v>13.37289126622231</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>27.09102280275372</v>
+        <v>25.76118256847146</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>27.09102281345588</v>
+        <v>38.23252277319509</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>27.09102279544187</v>
+        <v>7.671228594069039</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>27.09102283543847</v>
+        <v>28.68518787184124</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>27.0910228485233</v>
+        <v>40.91892144524117</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>27.0910227984675</v>
+        <v>7.259652402393957</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>27.09102284119413</v>
+        <v>27.18994316429731</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>27.09102285605841</v>
+        <v>43.10080831509933</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>27.09102280845295</v>
+        <v>3.609826506134599</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>27.09102285215051</v>
+        <v>41.07975791208801</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>27.09102285458004</v>
+        <v>32.84332350199851</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>27.0910228524756</v>
+        <v>23.0170589055783</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>27.09102286992343</v>
+        <v>42.61924599025041</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>27.09102287664838</v>
+        <v>49.8493941125742</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>27.09102281761959</v>
+        <v>7.856159685150278</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>27.09102286239217</v>
+        <v>23.73232152856196</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>27.09102287482638</v>
+        <v>28.39227166259951</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>27.09102283189213</v>
+        <v>14.31250216683308</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>27.09102287176716</v>
+        <v>19.93637504568427</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>27.09102288472209</v>
+        <v>33.03364743179135</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>27.09102283310774</v>
+        <v>1.444893394262689</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>27.09102287570854</v>
+        <v>10.4695962887754</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>27.0910228901361</v>
+        <v>16.09755364418582</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>27.0910228451767</v>
+        <v>-3.019907861163421</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>27.09102288871289</v>
+        <v>19.58753994501381</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>27.09102290182048</v>
+        <v>38.00437585177946</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>27.09102289751035</v>
+        <v>23.00845458947502</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>27.09102291481389</v>
+        <v>45.49045611990941</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>27.09102292049499</v>
+        <v>56.44643613048719</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>27.09102286094008</v>
+        <v>2.431936579769211</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>27.09102290578124</v>
+        <v>20.56910143070239</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>27.09102291827345</v>
+        <v>32.0917163525544</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>27.0910228766264</v>
+        <v>66.16299808933199</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>27.09102287398226</v>
+        <v>53.99100374183401</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>27.09102289172337</v>
+        <v>68.08096222269518</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>27.09102289845231</v>
+        <v>75.28040766032403</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>27.09102283711894</v>
+        <v>21.02113845750671</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>27.09102288420701</v>
+        <v>65.70060796904748</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>27.09102289651956</v>
+        <v>67.17673941223669</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>27.09102285038794</v>
+        <v>22.62956692851736</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>27.0910228922993</v>
+        <v>41.1082855154977</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>27.09102290523621</v>
+        <v>48.06676266776461</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>27.09102285376517</v>
+        <v>9.934438895350592</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>27.09102289871593</v>
+        <v>42.13579044078207</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>27.09102291323637</v>
+        <v>48.40207818337544</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>27.09102286691685</v>
+        <v>8.638316421615709</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>27.09102291268923</v>
+        <v>60.41736357339838</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>27.09102292579631</v>
+        <v>72.90297638267093</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>27.09102292088591</v>
+        <v>74.96088123297527</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>27.09102293845147</v>
+        <v>86.94180270032469</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>27.09102294411773</v>
+        <v>93.1137239455017</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>27.09102288229419</v>
+        <v>26.86935046695582</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>27.09102292940495</v>
+        <v>77.23066056159426</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>27.09102294170436</v>
+        <v>81.30798613095097</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>27.09102287976478</v>
+        <v>69.32916966322037</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>27.09102287692985</v>
+        <v>45.72407943660755</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>27.09102289448029</v>
+        <v>56.221016313875</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>27.09102290115758</v>
+        <v>71.36894657448579</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>27.09102284011396</v>
+        <v>11.9850690484906</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>27.09102288710368</v>
+        <v>59.20957564069872</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>27.09102285319324</v>
+        <v>15.26837178171222</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>27.0910228949879</v>
+        <v>36.54840531413619</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>27.09102290779458</v>
+        <v>46.446249704544</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>27.09102285713546</v>
+        <v>5.797681752538761</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>27.09102290198962</v>
+        <v>39.42455495564533</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>27.09102291638749</v>
+        <v>50.04505678270925</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>27.0910228702471</v>
+        <v>5.629254979409854</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>27.09102291588673</v>
+        <v>59.98059120712786</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>27.09102292886553</v>
+        <v>77.88613051757753</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>27.09102292379053</v>
+        <v>71.05450315542912</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>27.0910229411628</v>
+        <v>81.88488263995369</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>27.09102294678167</v>
+        <v>94.76702541177411</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>27.09102288522401</v>
+        <v>15.96493438726881</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>27.0910229322522</v>
+        <v>72.8090740831941</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>27.09102294439983</v>
+        <v>81.39012122462337</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>27.09102286547126</v>
+        <v>62.78574566029532</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>27.09102286262164</v>
+        <v>29.96766935609636</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>27.09102288001945</v>
+        <v>41.19624756460516</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>27.09102288681414</v>
+        <v>56.65395604262194</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>27.09102282689844</v>
+        <v>9.953736909546027</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>27.09102287276944</v>
+        <v>52.11309462651964</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>27.09102288522148</v>
+        <v>60.80211652232526</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>27.09102284109997</v>
+        <v>12.49078338035581</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>27.09102288187509</v>
+        <v>36.2929073688728</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>27.09102289486503</v>
+        <v>50.72803382600986</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>27.09102284418508</v>
+        <v>8.635065163127418</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>27.09102288784728</v>
+        <v>36.60353821476193</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>27.09102290239092</v>
+        <v>52.98064722568819</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>27.09102285649347</v>
+        <v>3.211091226069424</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>27.09102290100026</v>
+        <v>52.30379433669647</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>27.09102291414915</v>
+        <v>75.48217533831624</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>27.09102290909534</v>
+        <v>59.30113391358164</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>27.09102292633889</v>
+        <v>73.69670324923918</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>27.09102293207867</v>
+        <v>92.67378905331698</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>27.09102287153278</v>
+        <v>13.20647617099281</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>27.09102291751919</v>
+        <v>68.30869666413604</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>27.09102292996612</v>
+        <v>82.18987109783447</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>27.09102274137806</v>
+        <v>15.61676752336654</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>27.09102277425614</v>
+        <v>39.16790014404323</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>27.09102278424028</v>
+        <v>55.12793870366194</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>27.09102274350329</v>
+        <v>5.425919796080219</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>27.09102277973538</v>
+        <v>48.0080982471204</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>27.09102279061753</v>
+        <v>55.23239450433316</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>27.09102274913501</v>
+        <v>15.18476272451751</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>27.09102278544362</v>
+        <v>79.15339924328829</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>27.09102279540975</v>
+        <v>85.15565313856344</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>27.09102279761375</v>
+        <v>50.72487557723895</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>27.09102281127477</v>
+        <v>57.74119490125109</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>27.09102281593733</v>
+        <v>60.84743038177781</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>27.09102276915123</v>
+        <v>23.15150359955999</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>27.09102280532989</v>
+        <v>36.5569008227304</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>27.09102281530274</v>
+        <v>60.31555053251209</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>27.09102279761368</v>
+        <v>16.29863774501784</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>27.09102283585207</v>
+        <v>35.6881656348353</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>27.09102284770182</v>
+        <v>39.55336651420808</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>27.09102279800921</v>
+        <v>-4.252571810223667</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>27.09102283899089</v>
+        <v>21.99194943950123</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>27.09102285241137</v>
+        <v>21.49164232645215</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>27.09102280860078</v>
+        <v>-2.006053557447036</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>27.09102285035987</v>
+        <v>43.38225729912709</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>27.09102275281113</v>
+        <v>25.42483125250573</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>27.09102278734397</v>
+        <v>57.80698058985857</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>27.09102279729851</v>
+        <v>62.91272945383685</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>27.09102275676834</v>
+        <v>11.60589920316336</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>27.09102279493332</v>
+        <v>67.80802408303707</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>27.09102280587039</v>
+        <v>68.06872048335126</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>27.09102276305675</v>
+        <v>17.85655420582195</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>27.09102280117047</v>
+        <v>96.56385845005531</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>27.09102281113388</v>
+        <v>94.24225211733518</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>27.09102281333574</v>
+        <v>86.91080998111177</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>27.09102282722782</v>
+        <v>93.75847412769413</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>27.09102283191576</v>
+        <v>91.62196658992234</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>27.09102278302311</v>
+        <v>32.86521843233824</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>27.09102282109432</v>
+        <v>65.81952889616896</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>27.09102283093612</v>
+        <v>76.79587150857766</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>27.09102281301449</v>
+        <v>23.0334023861388</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>27.09102285316309</v>
+        <v>51.78153521547455</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>27.09102286504246</v>
+        <v>50.67203058278943</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>27.09102281554535</v>
+        <v>2.176383309347141</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>27.09102285874784</v>
+        <v>45.01592384783302</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>27.0910228722925</v>
+        <v>44.76558167148264</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>27.09102282704265</v>
+        <v>5.967415450471822</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>27.09102287089143</v>
+        <v>73.1645065415257</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>27.09102275528623</v>
+        <v>13.17150414850181</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>27.09102278971217</v>
+        <v>47.62406468171422</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>27.09102279956037</v>
+        <v>53.404689844887</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>27.09102275974647</v>
+        <v>7.478714625343276</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>27.09102279781099</v>
+        <v>63.93779454633402</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>27.09102280864401</v>
+        <v>64.87490536619737</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>27.09102276599679</v>
+        <v>13.02235497848929</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>27.09102280398221</v>
+        <v>92.0637002883317</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>27.09102281384425</v>
+        <v>92.2462432722874</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>27.0910228159546</v>
+        <v>89.80784717534353</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>27.09102282970413</v>
+        <v>95.28541966933081</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>27.09102283435995</v>
+        <v>95.54357544836601</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>27.09102278560439</v>
+        <v>19.17514355098612</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>27.0910228236189</v>
+        <v>54.53239949436895</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>27.09102283334297</v>
+        <v>65.13504026731064</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>27.09102281549173</v>
+        <v>13.87294204724767</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>27.09102285550175</v>
+        <v>42.80847322313946</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>27.09102286728198</v>
+        <v>44.5799339376839</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>27.09102281859595</v>
+        <v>-1.893778176134919</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>27.09102286167818</v>
+        <v>39.75998486263794</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>27.09102287512929</v>
+        <v>43.48792813859399</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>27.09102283002445</v>
+        <v>1.777875198487774</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>27.0910228737167</v>
+        <v>67.55643621146837</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>27.0910227466564</v>
+        <v>5.224261059697351</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>27.09102278022105</v>
+        <v>40.37938469744756</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>27.09102279021859</v>
+        <v>53.88964820507705</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>27.09102275039174</v>
+        <v>8.447023849428323</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>27.09102278744303</v>
+        <v>63.649578479827</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>27.09102279837693</v>
+        <v>72.99367818032434</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>27.09102275609481</v>
+        <v>11.62658908200956</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>27.0910227931358</v>
+        <v>90.29734263482989</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>27.09102280312648</v>
+        <v>96.87847099312253</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>27.09102280505568</v>
+        <v>81.50710097937558</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>27.09102281870496</v>
+        <v>89.2173337498467</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>27.09102282342401</v>
+        <v>91.68697222678468</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>27.09102277566253</v>
+        <v>14.94739762840861</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>27.09102281277419</v>
+        <v>51.49826120510579</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>27.09102282271072</v>
+        <v>71.06218329173774</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>27.09102280458248</v>
+        <v>8.279121598505039</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>27.09102284360475</v>
+        <v>37.52533551055089</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>27.09102285552537</v>
+        <v>45.00061825788327</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>27.09102280679584</v>
+        <v>0.4783037301386948</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>27.09102284872003</v>
+        <v>38.39205589933658</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>27.09102286227824</v>
+        <v>47.50171893589761</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>27.09102281749487</v>
+        <v>1.598498136705938</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>27.09102286009757</v>
+        <v>61.03169722265547</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>27.09102286240262</v>
+        <v>47.68630890612137</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>27.09102285970545</v>
+        <v>35.78566848307572</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>27.09102287617212</v>
+        <v>51.55955036090683</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>27.0910228820882</v>
+        <v>54.21216645406606</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>27.0910228252875</v>
+        <v>9.477151268464947</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>27.09102286876261</v>
+        <v>34.7694585219021</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>27.09102288029976</v>
+        <v>43.35964025311138</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>27.09102283954012</v>
+        <v>15.32195080098426</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>27.09102287843152</v>
+        <v>33.03502599218166</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>27.09102289022341</v>
+        <v>42.37572424161831</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>27.09102284012507</v>
+        <v>-3.674216878107661</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>27.09102288190022</v>
+        <v>22.30470995331362</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>27.09102289504372</v>
+        <v>25.51016890921181</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>27.0910228528958</v>
+        <v>0.1019878272427626</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>27.09102289534298</v>
+        <v>47.73494173772806</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>27.09102290724799</v>
+        <v>61.92571457980586</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>27.09102290258389</v>
+        <v>41.75754562764959</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>27.09102291884485</v>
+        <v>56.820682753715</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>27.09102292386817</v>
+        <v>64.20479125818449</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>27.09102286657074</v>
+        <v>7.723725536070898</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>27.09102291014397</v>
+        <v>35.64671269367474</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>27.09102292162889</v>
+        <v>50.01588330361392</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>27.09102288299584</v>
+        <v>77.37563459333315</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>27.0910228797901</v>
+        <v>70.78806702332115</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>27.09102289651675</v>
+        <v>81.97084360570506</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>27.09102290245421</v>
+        <v>80.6503242587942</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>27.09102284346608</v>
+        <v>22.91750535944236</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>27.09102288912161</v>
+        <v>76.3400110799725</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>27.09102290054275</v>
+        <v>76.5159209975553</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>27.09102285687727</v>
+        <v>21.22923709594606</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>27.09102289769412</v>
+        <v>52.41905019708788</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>27.09102290945635</v>
+        <v>50.59712973469217</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>27.09102285948507</v>
+        <v>1.564149688252225</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>27.09102290352246</v>
+        <v>51.73344627955136</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>27.09102291671554</v>
+        <v>48.30020408684041</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>27.09102287321759</v>
+        <v>5.788541709469133</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>27.09102291777948</v>
+        <v>82.01059983763848</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>27.09102292966618</v>
+        <v>83.55343941873267</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>27.09102292444215</v>
+        <v>88.29885080936081</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>27.09102294094393</v>
+        <v>94.19209026585916</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>27.09102294596325</v>
+        <v>93.5833904963188</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>27.09102288652183</v>
+        <v>27.62324529736476</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>27.0910229322321</v>
+        <v>86.53820918030216</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>27.09102294352348</v>
+        <v>86.94698161633896</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>27.09102288572659</v>
+        <v>77.65899547341046</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>27.09102288235858</v>
+        <v>65.2298271558947</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>27.0910228989027</v>
+        <v>74.55183920182252</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>27.09102290479984</v>
+        <v>78.80795406825425</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>27.0910228460922</v>
+        <v>12.94895699816264</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>27.09102289164125</v>
+        <v>70.28534764052094</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>27.09102290294208</v>
+        <v>72.21041036617461</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>27.09102285931624</v>
+        <v>10.58551244102492</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>27.09102290001062</v>
+        <v>44.91103583993515</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>27.09102291165117</v>
+        <v>44.78648562514971</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>27.09102286247063</v>
+        <v>-4.098229047560931</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>27.09102290640784</v>
+        <v>48.3833577633017</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>27.09102291948122</v>
+        <v>47.24415157200357</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>27.09102287612608</v>
+        <v>-0.07019178647894719</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>27.09102292054791</v>
+        <v>78.72699006679521</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>27.09102293231388</v>
+        <v>83.83117801874788</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>27.09102292695137</v>
+        <v>86.11671991760036</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>27.09102294327211</v>
+        <v>91.76990734535218</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>27.0910229482525</v>
+        <v>95.84771956065707</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>27.09102288906898</v>
+        <v>14.95244355569724</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>27.0910229346923</v>
+        <v>82.42308474842068</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>27.0910229458368</v>
+        <v>84.73567037498412</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>27.09102287222701</v>
+        <v>75.37815789535385</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>27.09102286886121</v>
+        <v>48.9917044841105</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>27.09102288527833</v>
+        <v>61.2393563592922</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>27.09102289126675</v>
+        <v>67.38084476306956</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>27.09102283361346</v>
+        <v>10.19605693503759</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>27.09102287812688</v>
+        <v>65.14620338040075</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>27.09102288966115</v>
+        <v>73.51553751529106</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>27.09102284779779</v>
+        <v>5.776520543796902</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>27.09102288754403</v>
+        <v>42.50442433789451</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>27.09102289935037</v>
+        <v>49.09427375539683</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>27.09102285018027</v>
+        <v>0.171051537343839</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>27.09102289298524</v>
+        <v>47.94093697262191</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>27.09102290619641</v>
+        <v>54.67937963023464</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>27.09102286309706</v>
+        <v>0.01906909266245904</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>27.09102290646176</v>
+        <v>73.68476203788252</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>27.0910229183832</v>
+        <v>87.02044906410239</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>27.09102291306044</v>
+        <v>77.64233510767497</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>27.09102292926731</v>
+        <v>87.00746123581214</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>27.09102293434702</v>
+        <v>97.27518373852246</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>27.09102287610437</v>
+        <v>10.1519505020629</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>27.09102292077255</v>
+        <v>80.39008548590209</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>27.09102293218335</v>
+        <v>90.23078830048433</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>27.09102272193045</v>
+        <v>14.66701931737791</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>27.09102275562881</v>
+        <v>11.73691445442002</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>27.09102276653634</v>
+        <v>21.86578023180467</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>27.09102272436093</v>
+        <v>1.587518901199925</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>27.09102276136202</v>
+        <v>14.38912932020056</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>27.0910227732569</v>
+        <v>15.56662017226268</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>27.09102272914073</v>
+        <v>8.438467638220846</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>27.09102276639369</v>
+        <v>25.84494659753245</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>27.09102277730471</v>
+        <v>27.31402303272119</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>27.09102278130492</v>
+        <v>13.12660034232742</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>27.09102279570835</v>
+        <v>18.07313337502133</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>27.0910228010117</v>
+        <v>20.66677577203371</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>27.09102275303677</v>
+        <v>23.4456187403012</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>27.09102279028031</v>
+        <v>19.2456345537437</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>27.09102280114847</v>
+        <v>31.91950141273127</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>27.09102278217976</v>
+        <v>12.46361309173093</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>27.0910228214545</v>
+        <v>20.56288850980186</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>27.0910228346082</v>
+        <v>28.58386910949354</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>27.09102278291655</v>
+        <v>0.8023752871911789</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>27.09102282476861</v>
+        <v>6.945383454108491</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>27.09102283962746</v>
+        <v>10.02574533702041</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>27.09102279271288</v>
+        <v>-1.535833127315815</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>27.0910228356202</v>
+        <v>12.85540046386334</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>27.09102273411944</v>
+        <v>17.46046150936531</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>27.09102276956465</v>
+        <v>21.8501561632142</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>27.09102278045458</v>
+        <v>25.461396661974</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>27.09102273853064</v>
+        <v>2.390187686523273</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>27.09102277754248</v>
+        <v>27.13414101706911</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>27.0910227895324</v>
+        <v>26.69854360683975</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>27.09102274406778</v>
+        <v>6.748216686052185</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>27.09102278322863</v>
+        <v>37.96152440515196</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>27.0910227941557</v>
+        <v>36.87473709664718</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>27.09102279818068</v>
+        <v>39.73241047081211</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>27.09102281283955</v>
+        <v>45.38111201449814</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>27.0910228181537</v>
+        <v>46.84942229410338</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>27.09102276795976</v>
+        <v>29.07519228713987</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>27.09102280721676</v>
+        <v>45.0743976853792</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>27.09102281795433</v>
+        <v>49.45614807297564</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>27.09102279871316</v>
+        <v>14.71478253750543</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>27.09102284001046</v>
+        <v>31.34474517943483</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>27.09102285322261</v>
+        <v>38.91746014151596</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>27.09102280175883</v>
+        <v>5.006567115733343</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>27.0910228459282</v>
+        <v>25.99754883151465</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>27.09102286097112</v>
+        <v>36.61787322207589</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>27.09102281258577</v>
+        <v>5.760356349488287</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>27.09102285770764</v>
+        <v>42.04203163926466</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>27.09102273701376</v>
+        <v>9.546143688042676</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>27.09102277235905</v>
+        <v>16.05659663849999</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>27.09102278313319</v>
+        <v>20.97044272032889</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>27.09102274195217</v>
+        <v>0.3809734049666211</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>27.09102278086868</v>
+        <v>25.01928024904157</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>27.0910227927502</v>
+        <v>26.38262394005305</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>27.09102274748667</v>
+        <v>4.98546748682406</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>27.09102278652793</v>
+        <v>36.7673403706417</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>27.09102279734547</v>
+        <v>39.28908772094589</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>27.09102280124125</v>
+        <v>41.09366426256257</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>27.09102281575457</v>
+        <v>44.42494750037412</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>27.09102282102415</v>
+        <v>50.31614461360641</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>27.09102277096146</v>
+        <v>17.54155036920719</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>27.09102281017253</v>
+        <v>35.04085338369906</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>27.09102282078476</v>
+        <v>40.45472406550637</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>27.09102280160382</v>
+        <v>7.267411469270716</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>27.0910228427648</v>
+        <v>22.90556884696129</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>27.09102285587296</v>
+        <v>34.55770598117446</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>27.09102280524944</v>
+        <v>0.3466216878755226</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>27.09102284929956</v>
+        <v>18.60442500429719</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>27.09102286425064</v>
+        <v>35.29986273002716</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>27.09102281604398</v>
+        <v>2.112178984612708</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>27.09102286101355</v>
+        <v>36.0696974878352</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>27.0910227278906</v>
+        <v>3.309324715115334</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>27.09102276231919</v>
+        <v>11.00269889387911</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>27.09102277324739</v>
+        <v>19.9313532855769</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>27.0910227320149</v>
+        <v>-1.007573101768312</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>27.0910227698684</v>
+        <v>22.28483811056639</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>27.09102278184515</v>
+        <v>28.46378551106381</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>27.09102273694975</v>
+        <v>1.274304834399796</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>27.09102277498726</v>
+        <v>33.10841438014089</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>27.09102278593499</v>
+        <v>37.53547800365789</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>27.09102278959806</v>
+        <v>31.83085879887182</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>27.09102280400234</v>
+        <v>34.48625970329978</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>27.0910228093505</v>
+        <v>40.16470047730002</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>27.0910227603472</v>
+        <v>12.60390833063721</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>27.09102279858382</v>
+        <v>28.00557900650699</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>27.09102280942943</v>
+        <v>39.96722657171118</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>27.09102278998544</v>
+        <v>3.746641146624402</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>27.09102283008254</v>
+        <v>19.60251288713478</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>27.09102284333603</v>
+        <v>33.87949189434151</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>27.09102279262851</v>
+        <v>1.761121390376655</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>27.09102283545052</v>
+        <v>16.04957824017643</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>27.09102285050588</v>
+        <v>34.48549764178023</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>27.09102280262095</v>
+        <v>0.2924849360224506</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>27.09102284641932</v>
+        <v>27.8642450144494</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>27.09102284900218</v>
+        <v>23.3940717960897</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>27.0910228472491</v>
+        <v>15.33803668237246</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>27.0910228647744</v>
+        <v>33.06421981454827</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>27.09102287154745</v>
+        <v>41.07207533018358</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>27.09102281243846</v>
+        <v>2.591397102897258</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>27.09102285735438</v>
+        <v>13.1720362354852</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>27.09102286998438</v>
+        <v>20.12899402953017</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>27.09102282790801</v>
+        <v>13.63232340982876</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>27.09102286795289</v>
+        <v>17.65921317331888</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>27.09102288101575</v>
+        <v>28.48510895923346</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>27.09102282879414</v>
+        <v>-1.700002345297168</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>27.091022871562</v>
+        <v>4.45096907917306</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>27.09102288611173</v>
+        <v>9.114874695471624</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>27.09102284096213</v>
+        <v>-2.455890391810232</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>27.09102288467642</v>
+        <v>14.96617275235591</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>27.09102289789293</v>
+        <v>31.3389164601981</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>27.09102289393698</v>
+        <v>18.25773646344471</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>27.09102291128832</v>
+        <v>37.36313602535161</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>27.09102291700335</v>
+        <v>49.11280852280451</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>27.09102285735204</v>
+        <v>3.454042095746171</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>27.0910229023839</v>
+        <v>15.06705234865863</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>27.09102291498903</v>
+        <v>26.83187968776835</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>27.09102287118784</v>
+        <v>58.86604425211559</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>27.09102286888295</v>
+        <v>45.14722822160716</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>27.09102288670188</v>
+        <v>59.14762750110948</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>27.0910228934859</v>
+        <v>67.53762758025674</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>27.091022832049</v>
+        <v>15.65575141485852</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>27.09102287929953</v>
+        <v>55.78463030515083</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>27.0910228918259</v>
+        <v>60.92423162231651</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>27.09102284654962</v>
+        <v>21.79184427866261</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>27.09102288863877</v>
+        <v>38.20171044713061</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>27.09102290169914</v>
+        <v>44.75222974760194</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>27.09102284961423</v>
+        <v>7.189092048068499</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>27.09102289474425</v>
+        <v>35.92901261354406</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>27.09102290940309</v>
+        <v>42.89529482043014</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>27.09102286287866</v>
+        <v>9.777636429729068</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>27.09102290883976</v>
+        <v>55.86053847624483</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>27.09102292207013</v>
+        <v>68.1577940134996</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>27.09102291750713</v>
+        <v>70.0255413419945</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>27.09102293512052</v>
+        <v>79.84646793612391</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>27.09102294082539</v>
+        <v>87.59372937680587</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>27.09102287888695</v>
+        <v>29.07887646071967</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>27.09102292620259</v>
+        <v>72.333557161361</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>27.09102293862766</v>
+        <v>78.21493632425837</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>27.09102287439607</v>
+        <v>60.62825883603425</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>27.09102287189139</v>
+        <v>35.18882194280314</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>27.09102288951846</v>
+        <v>45.71419881308142</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>27.09102289625257</v>
+        <v>62.29924168132393</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>27.09102283510468</v>
+        <v>5.288097068400912</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>27.09102288225554</v>
+        <v>47.01752926523525</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>27.09102289465876</v>
+        <v>56.19080956524323</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>27.09102284940979</v>
+        <v>13.55590984754258</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>27.09102289137973</v>
+        <v>32.04344132116424</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>27.09102290431226</v>
+        <v>42.40443388157196</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>27.09102285304666</v>
+        <v>1.833912658556425</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>27.09102289807849</v>
+        <v>31.40326446822625</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>27.09102291261734</v>
+        <v>43.51051919482127</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>27.09102286627033</v>
+        <v>5.315607618823901</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>27.09102291209648</v>
+        <v>53.14790620632142</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>27.09102292520095</v>
+        <v>71.86686041140509</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>27.09102292046598</v>
+        <v>64.41380032884646</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>27.09102293788586</v>
+        <v>73.09684530427919</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>27.09102294354441</v>
+        <v>88.09990451557721</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>27.09102288187018</v>
+        <v>16.55245115895118</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>27.09102292910325</v>
+        <v>65.53746427305191</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>27.09102294137785</v>
+        <v>76.5818155952757</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>27.09102285992363</v>
+        <v>52.57207000523505</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>27.09102285740759</v>
+        <v>20.15284818335271</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>27.09102287488079</v>
+        <v>29.68397732786131</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>27.09102288173021</v>
+        <v>46.07409792232983</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>27.09102282172881</v>
+        <v>2.996409238596467</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>27.09102286774567</v>
+        <v>38.02863518610563</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>27.09102288040431</v>
+        <v>50.06995173337788</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>27.09102283715746</v>
+        <v>10.13315768424545</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>27.09102287810156</v>
+        <v>31.06858815585794</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>27.09102289120705</v>
+        <v>44.714886970687</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>27.09102283992496</v>
+        <v>3.773488304313315</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>27.0910228837571</v>
+        <v>27.97097651076124</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>27.09102289843008</v>
+        <v>44.4515955024911</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>27.09102285233368</v>
+        <v>2.226812566107721</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>27.0910228970191</v>
+        <v>44.62110122897087</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>27.09102291028477</v>
+        <v>67.54551720399333</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>27.09102290557324</v>
+        <v>51.84461821198343</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>27.0910229228637</v>
+        <v>62.63605043213587</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>27.09102292864125</v>
+        <v>83.23339062415342</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>27.09102286799053</v>
+        <v>11.36434168893367</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>27.0910229141747</v>
+        <v>58.80383265828252</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>27.09102292673982</v>
+        <v>74.00074339374879</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>27.09102272955203</v>
+        <v>14.41740928944354</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>27.09102276045122</v>
+        <v>10.38155425982924</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>27.09102277037018</v>
+        <v>18.80433597940462</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>27.09102273146779</v>
+        <v>0.05239242799188304</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>27.09102276540202</v>
+        <v>8.627004719838141</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>27.09102277622588</v>
+        <v>9.488226138193756</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>27.09102273588456</v>
+        <v>6.550534841921451</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>27.09102277002825</v>
+        <v>20.67760656381849</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>27.09102277996033</v>
+        <v>21.62796656757954</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>27.09102278362312</v>
+        <v>9.060632248495569</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>27.09102279681834</v>
+        <v>14.95616066357198</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>27.09102280160932</v>
+        <v>17.35307693442778</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>27.09102275755931</v>
+        <v>13.79774004075665</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>27.09102279170206</v>
+        <v>9.568023324854419</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>27.09102280158135</v>
+        <v>18.23876623738829</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>27.0910227854559</v>
+        <v>14.9584220705501</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>27.09102282152602</v>
+        <v>23.87056552142095</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>27.09102283347357</v>
+        <v>32.4635730158809</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>27.09102278590793</v>
+        <v>0.6770343504701906</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>27.09102282438074</v>
+        <v>7.316174364471959</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>27.09102283788789</v>
+        <v>12.46086543042093</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>27.09102279502</v>
+        <v>1.301457366957475</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>27.09102283441743</v>
+        <v>16.92919981328535</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>27.09102274057836</v>
+        <v>15.5075153997831</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>27.09102277307104</v>
+        <v>18.22129829324953</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>27.09102278297714</v>
+        <v>20.9222697123995</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>27.09102274430241</v>
+        <v>0.1150804986113698</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>27.09102278007651</v>
+        <v>19.67979039683679</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>27.09102279098731</v>
+        <v>19.38973332358192</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>27.0910227493962</v>
+        <v>3.852854734937811</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>27.09102278528065</v>
+        <v>30.70018776784936</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>27.0910227952295</v>
+        <v>29.34776884976736</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>27.09102279891591</v>
+        <v>32.44372272394747</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>27.0910228123435</v>
+        <v>39.0095141018228</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>27.09102281715024</v>
+        <v>39.96394750975949</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>27.09102277106831</v>
+        <v>17.47358935478207</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>27.091022807048</v>
+        <v>31.69946647302832</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>27.09102281681118</v>
+        <v>33.12456331319504</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>27.09102280048607</v>
+        <v>16.71732236300542</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>27.09102283840416</v>
+        <v>33.98038128941027</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>27.09102285040791</v>
+        <v>42.36354375774705</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>27.09102280305076</v>
+        <v>5.001031905858316</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>27.09102284364745</v>
+        <v>25.88492175973724</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>27.0910228573222</v>
+        <v>38.04422117570338</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>27.0910228130906</v>
+        <v>8.250936283397909</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>27.09102285451188</v>
+        <v>44.55673373213979</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>27.09102274320708</v>
+        <v>7.241165483053408</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>27.09102277560537</v>
+        <v>11.56867018812687</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>27.09102278540788</v>
+        <v>15.83065835282522</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>27.09102274741542</v>
+        <v>-2.307020492708929</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>27.09102278309998</v>
+        <v>16.89456974232544</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>27.09102279391318</v>
+        <v>18.56336756207496</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>27.09102275250098</v>
+        <v>1.546742404128363</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>27.09102278827267</v>
+        <v>28.50913090985344</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>27.09102279812337</v>
+        <v>30.83474799387257</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>27.09102280169309</v>
+        <v>33.11959353680362</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>27.09102281498649</v>
+        <v>37.68310037457178</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>27.09102281975566</v>
+        <v>42.7199640917937</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>27.09102277379648</v>
+        <v>6.324677568348097</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>27.09102280973066</v>
+        <v>21.68654043852574</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>27.09102281938096</v>
+        <v>24.27329021844403</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>27.09102280310816</v>
+        <v>9.111973716030871</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>27.09102284089868</v>
+        <v>25.33648432309422</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>27.09102285280953</v>
+        <v>37.85245072644618</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>27.0910228062244</v>
+        <v>0.4208594712188365</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>27.09102284670978</v>
+        <v>18.7232865562759</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>27.09102286030182</v>
+        <v>36.73505608784893</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>27.09102281622764</v>
+        <v>4.456043554469527</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>27.09102285750627</v>
+        <v>38.38139606017536</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>27.09102273490402</v>
+        <v>2.599030533895622</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>27.09102276646606</v>
+        <v>7.839141772940764</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>27.09102277640757</v>
+        <v>15.92811737463984</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>27.091022738366</v>
+        <v>-2.876911349341757</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>27.0910227730781</v>
+        <v>15.09500067342455</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>27.09102278397741</v>
+        <v>21.12110072572232</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>27.09102274290802</v>
+        <v>-0.665395844176377</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>27.09102277776318</v>
+        <v>26.10354709026444</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>27.09102278773181</v>
+        <v>30.54338549020479</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>27.09102279108837</v>
+        <v>25.54871164007509</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>27.09102280428148</v>
+        <v>29.95290747219148</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>27.09102280911934</v>
+        <v>34.91079780816369</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>27.09102276413196</v>
+        <v>3.060283385189788</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>27.09102279917704</v>
+        <v>16.9621625009338</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>27.09102280903756</v>
+        <v>25.09289103357507</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>27.0910227925032</v>
+        <v>6.766098554478699</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>27.09102282932269</v>
+        <v>22.79310103947055</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>27.09102284136453</v>
+        <v>37.79273887820048</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>27.09102279470178</v>
+        <v>2.335011019375298</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>27.09102283406314</v>
+        <v>16.74805374903582</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>27.09102284774898</v>
+        <v>36.22894486735861</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>27.09102280397622</v>
+        <v>3.732866520070449</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>27.09102284418487</v>
+        <v>31.25228061979934</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>27.09102284658091</v>
+        <v>27.77284427006134</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>27.09102284501989</v>
+        <v>20.48561208766187</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>27.09102286105055</v>
+        <v>39.03295106215191</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>27.09102286715837</v>
+        <v>47.45808340693343</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>27.09102281297082</v>
+        <v>4.605815610853245</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>27.09102285419155</v>
+        <v>19.08145102128983</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>27.09102286569612</v>
+        <v>26.31214220679563</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>27.09102282738862</v>
+        <v>14.62068079786102</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>27.09102286416196</v>
+        <v>20.70885098562016</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>27.091022876034</v>
+        <v>31.61168840332678</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>27.09102282798938</v>
+        <v>-2.895197413450166</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>27.09102286730084</v>
+        <v>4.288639128299064</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>27.09102288052951</v>
+        <v>10.68652787989557</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>27.09102283927078</v>
+        <v>-0.5043190882750075</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>27.09102287940598</v>
+        <v>18.44030240195145</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>27.09102289141945</v>
+        <v>34.17078659771246</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>27.09102288783995</v>
+        <v>22.32024476664105</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>27.09102290370091</v>
+        <v>42.68935969831003</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>27.091022908868</v>
+        <v>52.87995337462556</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>27.09102285418129</v>
+        <v>4.605028046546661</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>27.09102289550995</v>
+        <v>20.09209837693978</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>27.09102290697714</v>
+        <v>30.42606542658144</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>27.09102286676642</v>
+        <v>61.13300117391498</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>27.0910228647049</v>
+        <v>48.50307316727277</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>27.09102288100095</v>
+        <v>63.83563536381453</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>27.09102288712469</v>
+        <v>72.21749496963514</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>27.09102283080619</v>
+        <v>16.80512361962889</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>27.09102287415886</v>
+        <v>59.09711982829407</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>27.0910228855712</v>
+        <v>64.62103076723689</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>27.09102284435744</v>
+        <v>22.1925568829752</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>27.09102288299755</v>
+        <v>40.51628298988763</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>27.0910228948706</v>
+        <v>47.38968498998221</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>27.09102284695527</v>
+        <v>6.70190613878933</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>27.09102288843126</v>
+        <v>35.47407759887905</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>27.0910229017594</v>
+        <v>44.01391069240701</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>27.09102285922469</v>
+        <v>11.66461117771128</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>27.0910229014121</v>
+        <v>57.92856710431575</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>27.09102291344037</v>
+        <v>69.46303479531301</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>27.09102290930889</v>
+        <v>71.22877597985483</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>27.0910229254085</v>
+        <v>83.40298660026799</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>27.09102293057055</v>
+        <v>89.4879151571072</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>27.09102287379259</v>
+        <v>29.76839181175074</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>27.09102291720648</v>
+        <v>75.26327403570178</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>27.09102292851107</v>
+        <v>80.22333904539342</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>27.09102286967339</v>
+        <v>62.4712876136698</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>27.09102286742964</v>
+        <v>38.99392128622374</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>27.09102288354975</v>
+        <v>51.42003456234184</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>27.09102288963088</v>
+        <v>67.36313956472689</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>27.09102283357782</v>
+        <v>7.024691291711431</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>27.09102287683612</v>
+        <v>50.83128266164</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>27.09102288813711</v>
+        <v>60.318980301651</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>27.09102284695016</v>
+        <v>13.96632803346908</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>27.09102288547872</v>
+        <v>34.24894674351205</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>27.09102289723693</v>
+        <v>44.9062134436049</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>27.09102285007503</v>
+        <v>1.62012194103411</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>27.09102289145934</v>
+        <v>31.25575309478556</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>27.09102290467904</v>
+        <v>44.72593217886978</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>27.0910228623003</v>
+        <v>7.27419795027259</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>27.09102290436136</v>
+        <v>55.14281134155286</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>27.09102291627637</v>
+        <v>72.83973022489451</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>27.09102291198774</v>
+        <v>65.96460678124703</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>27.09102292791063</v>
+        <v>77.37175522018586</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>27.09102293303259</v>
+        <v>90.18542325698439</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>27.09102287649731</v>
+        <v>18.1352422401265</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>27.09102291983373</v>
+        <v>69.23461174050482</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>27.09102293100182</v>
+        <v>79.13260254399982</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>27.09102285646246</v>
+        <v>55.81393799818096</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>27.09102285420543</v>
+        <v>25.50022778794383</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>27.09102287018724</v>
+        <v>37.46218855134119</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>27.09102287636983</v>
+        <v>53.23354823714394</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>27.0910228213642</v>
+        <v>5.66486582657193</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>27.09102286358802</v>
+        <v>43.40061730615948</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>27.09102287511997</v>
+        <v>55.42929564522466</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>27.09102283575567</v>
+        <v>11.78225963741873</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>27.09102287334997</v>
+        <v>33.98895934212213</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>27.09102288526309</v>
+        <v>47.74232512089738</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>27.09102283808351</v>
+        <v>3.978169230392265</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>27.0910228783711</v>
+        <v>28.64114151067872</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>27.09102289171086</v>
+        <v>45.83486790546213</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>27.09102284956833</v>
+        <v>5.632588659269256</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>27.09102289058939</v>
+        <v>48.09830662589241</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>27.09102290264928</v>
+        <v>70.00097103373729</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>27.09102289838061</v>
+        <v>55.2830225800443</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>27.09102291418559</v>
+        <v>68.7912310080371</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>27.0910229194136</v>
+        <v>86.80384781425143</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>27.09102286381152</v>
+        <v>13.63277628901205</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>27.09102290619388</v>
+        <v>63.74411274849193</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>27.09102291762417</v>
+        <v>77.10712801474169</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>27.09102272530523</v>
+        <v>12.16728996728493</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>27.0910227594288</v>
+        <v>19.82624134019288</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>27.09102277005776</v>
+        <v>32.29069517969286</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>27.09102272686689</v>
+        <v>-1.683586134556041</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>27.09102276437435</v>
+        <v>16.60896432368569</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>27.09102277595885</v>
+        <v>20.68336388424203</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>27.09102273217264</v>
+        <v>4.018287482047445</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>27.09102276985198</v>
+        <v>38.77517868117934</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>27.09102278047668</v>
+        <v>42.84120921755316</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>27.09102278377145</v>
+        <v>25.17728676210329</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>27.0910227980367</v>
+        <v>30.23968319267244</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>27.09102280313114</v>
+        <v>31.85232017794906</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>27.09102275468727</v>
+        <v>11.40165917948454</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>27.09102279240927</v>
+        <v>20.53587011085162</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>27.09102280301425</v>
+        <v>34.35745421158893</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>27.09102278418933</v>
+        <v>14.61605155859732</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>27.09102282388498</v>
+        <v>26.41117536935824</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>27.09102283660912</v>
+        <v>30.65226108587842</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>27.0910227841402</v>
+        <v>-1.552364249698631</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>27.09102282656899</v>
+        <v>10.6282144159487</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>27.09102284094171</v>
+        <v>9.838545942471431</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>27.09102279458336</v>
+        <v>-3.106193196292669</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>27.09102283793254</v>
+        <v>23.16381580819317</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>27.09102273726035</v>
+        <v>17.56061120964007</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>27.09102277312764</v>
+        <v>34.45299532269248</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>27.09102278373225</v>
+        <v>39.28449227081272</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>27.09102274077306</v>
+        <v>5.158667290554423</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>27.09102278031261</v>
+        <v>37.61167885740255</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>27.09102279196555</v>
+        <v>38.67154856482429</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>27.09102274677704</v>
+        <v>6.98016099539797</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>27.09102278635976</v>
+        <v>57.44604167501967</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>27.09102279698903</v>
+        <v>56.87025359206105</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>27.09102280028673</v>
+        <v>58.95185813420818</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>27.09102281480756</v>
+        <v>64.14805079825975</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>27.09102281992126</v>
+        <v>63.8166775481608</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>27.09102276926404</v>
+        <v>21.50221632798288</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>27.09102280899839</v>
+        <v>52.25454255416241</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>27.09102281946652</v>
+        <v>57.8181238000265</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>27.09102280041979</v>
+        <v>17.90527256089262</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>27.09102284213068</v>
+        <v>39.92225162961429</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>27.09102285489996</v>
+        <v>42.08261128859887</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>27.09102280264869</v>
+        <v>5.03898083212216</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>27.09102284741301</v>
+        <v>34.60816483915943</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>27.09102286193455</v>
+        <v>37.9554449104515</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>27.09102281406334</v>
+        <v>5.481829963574778</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>27.09102285961833</v>
+        <v>55.15558205535869</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>27.09102274002809</v>
+        <v>9.066652228415737</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>27.09102277578662</v>
+        <v>27.3522606588135</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>27.09102278628108</v>
+        <v>33.81657245489247</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>27.09102274408187</v>
+        <v>3.379778518142889</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>27.09102278351979</v>
+        <v>35.22598847090244</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>27.09102279506752</v>
+        <v>38.44735607650991</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>27.09102275005877</v>
+        <v>5.484654423279462</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>27.09102278951184</v>
+        <v>55.60938518837497</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>27.09102280003599</v>
+        <v>58.74909085623679</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>27.09102280322075</v>
+        <v>61.69975079644085</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>27.0910228175955</v>
+        <v>64.52616559246502</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>27.09102282267303</v>
+        <v>68.8086255518007</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>27.09102277215613</v>
+        <v>10.98570655673173</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>27.09102281183498</v>
+        <v>42.5730533292012</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>27.09102282218074</v>
+        <v>49.12700252513723</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>27.09102280318853</v>
+        <v>10.98515026630128</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>27.09102284475544</v>
+        <v>31.99851094754975</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>27.09102285742503</v>
+        <v>38.30301452772723</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>27.09102280602767</v>
+        <v>1.776439028380739</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>27.09102285066709</v>
+        <v>28.80911002630002</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>27.09102286509768</v>
+        <v>37.89891433152916</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>27.09102281738511</v>
+        <v>3.080721787086777</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>27.09102286277872</v>
+        <v>50.10207770770336</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>27.09102273098021</v>
+        <v>3.306220193500579</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>27.09102276582157</v>
+        <v>20.9520362285298</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>27.09102277647715</v>
+        <v>33.77239890630401</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>27.09102273424254</v>
+        <v>0.5741126991907102</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>27.09102277260151</v>
+        <v>29.12282422282916</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>27.09102278426333</v>
+        <v>39.99337277235104</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>27.09102273964633</v>
+        <v>1.436349428966675</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>27.09102277809483</v>
+        <v>49.47613669692704</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>27.09102278875782</v>
+        <v>57.48904769461518</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>27.09102279174059</v>
+        <v>50.71189822966382</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>27.09102280599492</v>
+        <v>54.97729603639505</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>27.09102281115206</v>
+        <v>60.65920638583054</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>27.09102276169136</v>
+        <v>5.791982946769973</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>27.09102280039451</v>
+        <v>35.09973975400187</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>27.09102281097503</v>
+        <v>49.60702900756816</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>27.09102279164751</v>
+        <v>5.566672147123004</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>27.09102283215746</v>
+        <v>24.99770482476544</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>27.09102284497856</v>
+        <v>35.85086839073028</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>27.09102279350868</v>
+        <v>0.1297572358360775</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>27.09102283691141</v>
+        <v>21.10517790531395</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>27.0910228514623</v>
+        <v>34.72446489842834</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>27.0910228040922</v>
+        <v>-1.206909208345042</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>27.09102284832148</v>
+        <v>37.1879088903129</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>27.0910228508795</v>
+        <v>28.24116435864139</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>27.09102284880039</v>
+        <v>22.53447218562495</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>27.09102286606108</v>
+        <v>36.76659732084802</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>27.09102287257155</v>
+        <v>38.56484068585463</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>27.0910228133857</v>
+        <v>3.224991823592955</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>27.09102285861198</v>
+        <v>16.36649062986912</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>27.09102287101769</v>
+        <v>24.46264880334054</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>27.09102282987543</v>
+        <v>12.3613682269254</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>27.09102287034756</v>
+        <v>19.99802188457688</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>27.09102288301667</v>
+        <v>31.38618319791849</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>27.09102283003542</v>
+        <v>-4.113420991742725</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>27.09102287338629</v>
+        <v>7.932932147349025</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>27.09102288749028</v>
+        <v>12.77056595548495</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>27.09102284284246</v>
+        <v>-3.503955600250212</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>27.09102288700337</v>
+        <v>23.62056896072343</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>27.09102289981398</v>
+        <v>39.63568551989125</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>27.09102289552797</v>
+        <v>25.82563994609889</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>27.09102291263408</v>
+        <v>42.71551279985975</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>27.09102291814578</v>
+        <v>53.46762690843083</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>27.09102285832483</v>
+        <v>1.549622908622336</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>27.09102290374362</v>
+        <v>19.28449864665602</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>27.09102291607744</v>
+        <v>33.62396255748843</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>27.09102287264492</v>
+        <v>63.83932173598023</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>27.09102287003085</v>
+        <v>55.69619146816741</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>27.09102288757872</v>
+        <v>66.28257001754693</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>27.09102289410712</v>
+        <v>66.93316788763546</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>27.09102283260786</v>
+        <v>16.15526335675651</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>27.09102288015661</v>
+        <v>60.16473804608496</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>27.09102289244549</v>
+        <v>64.44023351194402</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>27.09102284820921</v>
+        <v>19.2432491771033</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>27.09102289071842</v>
+        <v>41.41567465372401</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>27.09102290337053</v>
+        <v>45.29104563000996</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>27.09102285052395</v>
+        <v>4.995539857038704</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>27.09102289625697</v>
+        <v>42.29278318914565</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>27.09102291043465</v>
+        <v>45.07180660681085</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>27.09102286436516</v>
+        <v>6.819568920910509</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>27.09102291076354</v>
+        <v>64.6483727114755</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>27.09102292356966</v>
+        <v>72.0670250240625</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>27.09102291869133</v>
+        <v>76.69194683651791</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>27.09102293606116</v>
+        <v>84.93016751385774</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>27.09102294156597</v>
+        <v>90.87887930493909</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>27.09102287946966</v>
+        <v>24.32456405969854</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>27.09102292716686</v>
+        <v>75.6869382881351</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>27.09102293930524</v>
+        <v>81.25959445760223</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>27.0910228757105</v>
+        <v>66.38571772052011</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>27.09102287291059</v>
+        <v>48.24906665702299</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>27.09102289026764</v>
+        <v>55.78277228897109</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>27.09102289675315</v>
+        <v>64.33733048174985</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>27.09102283554605</v>
+        <v>7.292654587349713</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>27.09102288298646</v>
+        <v>53.09827414676182</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>27.09102289515283</v>
+        <v>60.86909848093117</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>27.09102285094105</v>
+        <v>10.55564379452151</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>27.09102289332311</v>
+        <v>34.67655550344206</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>27.09102290585103</v>
+        <v>42.12397568363441</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>27.09102285383899</v>
+        <v>-0.4872537125620973</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>27.09102289946822</v>
+        <v>37.69952755959186</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>27.09102291352655</v>
+        <v>45.09090979276759</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>27.09102286761403</v>
+        <v>2.160083629072954</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>27.09102291386821</v>
+        <v>61.37033773118141</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>27.09102292655105</v>
+        <v>74.69664786029738</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>27.09102292151463</v>
+        <v>71.85999080477524</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>27.09102293869407</v>
+        <v>79.08004816566623</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>27.09102294415775</v>
+        <v>92.29916815639331</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>27.09102288233041</v>
+        <v>11.94432305619069</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>27.09102292993868</v>
+        <v>69.38022306365876</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>27.09102294192647</v>
+        <v>79.39626502412382</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>27.09102286138279</v>
+        <v>56.31660673046689</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>27.09102285857241</v>
+        <v>28.29804037943219</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>27.09102287577395</v>
+        <v>36.82818215510633</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>27.09102288237274</v>
+        <v>46.47212415069791</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>27.09102282229646</v>
+        <v>2.554157126575777</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>27.0910228686082</v>
+        <v>40.89082671056178</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>27.09102288103611</v>
+        <v>53.90103286013593</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>27.09102283875045</v>
+        <v>5.524037630648049</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>27.09102288011298</v>
+        <v>30.03058583523947</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>27.0910228928201</v>
+        <v>43.3829094414328</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>27.09102284080192</v>
+        <v>-0.5251406822815632</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>27.09102288522032</v>
+        <v>30.43139655677559</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>27.09102289942973</v>
+        <v>45.12941182553787</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>27.09102285379157</v>
+        <v>-1.78303347663206</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>27.09102289891182</v>
+        <v>49.54110531563805</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>27.09102291176291</v>
+        <v>70.52695221686331</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>27.09102290675814</v>
+        <v>57.30510370602499</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>27.09102292380091</v>
+        <v>67.42856725523433</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>27.0910229293833</v>
+        <v>86.81363248581444</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>27.09102286857046</v>
+        <v>5.447732285441017</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>27.09102291513508</v>
+        <v>60.65225663625071</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>27.09102292741686</v>
+        <v>77.56522514175344</v>
       </c>
     </row>
   </sheetData>
